--- a/coronavirus-trend-italia.xlsx
+++ b/coronavirus-trend-italia.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giovanni.mauramati\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giovanni.mauramati\Documents\GitHub\COVID-19-Trend-Italia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA5B429-21DD-4F2C-B2AF-F69E70B4BA26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535ED2B3-0F1A-4DE0-A6BF-1179E0D74853}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="corona" sheetId="2" r:id="rId1"/>
+    <sheet name="data" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +56,7 @@
     <t>DPCM 8.3.2020</t>
   </si>
   <si>
-    <t>DPCM 9.3.2020</t>
+    <t>DPCM 9.3.2020 #IORESTOACASA</t>
   </si>
 </sst>
 </file>
@@ -703,7 +703,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>corona!$C$1</c:f>
+              <c:f>data!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -732,7 +732,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>corona!$A$2:$A$100</c:f>
+              <c:f>data!$A$2:$A$100</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="99"/>
@@ -885,7 +885,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>corona!$C$2:$C$100</c:f>
+              <c:f>data!$C$2:$C$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="99"/>
@@ -1048,7 +1048,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>corona!$D$1</c:f>
+              <c:f>data!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1077,7 +1077,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>corona!$A$2:$A$100</c:f>
+              <c:f>data!$A$2:$A$100</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="99"/>
@@ -1230,7 +1230,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>corona!$D$2:$D$100</c:f>
+              <c:f>data!$D$2:$D$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="99"/>
@@ -1393,7 +1393,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>corona!$E$1</c:f>
+              <c:f>data!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1422,7 +1422,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>corona!$A$2:$A$100</c:f>
+              <c:f>data!$A$2:$A$100</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="99"/>
@@ -1575,7 +1575,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>corona!$E$2:$E$100</c:f>
+              <c:f>data!$E$2:$E$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="99"/>
@@ -1738,7 +1738,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>corona!$B$1</c:f>
+              <c:f>data!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1767,7 +1767,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>corona!$A$2:$A$100</c:f>
+              <c:f>data!$A$2:$A$100</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="99"/>
@@ -1920,7 +1920,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>corona!$B$2:$B$100</c:f>
+              <c:f>data!$B$2:$B$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="99"/>
@@ -2168,9 +2168,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -2195,9 +2193,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -2222,9 +2218,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -2249,9 +2243,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -2276,9 +2268,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -2303,9 +2293,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -2330,9 +2318,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -2357,9 +2343,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -2384,9 +2368,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -2411,9 +2393,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -2438,9 +2418,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000D-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -2465,9 +2443,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000E-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -2492,9 +2468,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000F-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -2519,9 +2493,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000010-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -2546,9 +2518,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000011-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -2573,9 +2543,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000012-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -2600,9 +2568,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000013-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -2627,9 +2593,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000014-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -2654,9 +2618,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000015-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -2681,9 +2643,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -2708,9 +2668,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000017-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -2735,9 +2693,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000018-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -2762,9 +2718,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000019-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -2789,9 +2743,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001A-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -2816,9 +2768,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001B-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -2843,9 +2793,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001C-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -2870,9 +2818,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001D-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -2897,9 +2843,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001E-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -2924,9 +2868,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001F-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -2951,9 +2893,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000020-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -2978,9 +2918,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000021-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -3005,9 +2943,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000022-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -3032,9 +2968,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000023-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -3059,9 +2993,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000024-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -3086,9 +3018,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000025-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -3113,9 +3043,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000026-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -3140,9 +3068,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000027-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -3167,9 +3093,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000028-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -3194,9 +3118,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000029-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -3221,9 +3143,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000002A-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -3248,9 +3168,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000002B-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -3275,9 +3193,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000002C-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -3302,9 +3218,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000002D-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -3329,9 +3243,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000002E-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -3356,9 +3268,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000002F-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -3390,7 +3300,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -3424,7 +3333,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -3451,9 +3359,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000031-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -3478,9 +3384,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000032-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -3505,9 +3409,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000033-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -3532,9 +3434,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000034-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -3559,9 +3459,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000035-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -3586,9 +3484,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000036-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -3613,9 +3509,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000037-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -3640,9 +3534,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000038-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -3667,9 +3559,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000039-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -3694,9 +3584,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000003A-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -3721,9 +3609,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000003B-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -3748,9 +3634,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000003C-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -3775,9 +3659,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000003D-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -3802,9 +3684,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000003E-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -3829,9 +3709,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000003F-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -3856,9 +3734,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000040-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -3883,9 +3759,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000041-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -3910,9 +3784,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000042-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -3937,9 +3809,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000043-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -3964,9 +3834,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000044-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -3991,9 +3859,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000045-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -4018,9 +3884,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000046-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -4045,9 +3909,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000047-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -4072,9 +3934,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000048-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -4099,9 +3959,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000049-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -4126,9 +3984,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000004A-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -4153,9 +4009,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000004B-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -4180,9 +4034,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000004C-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -4207,9 +4059,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000004D-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -4234,9 +4084,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000004E-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -4261,9 +4109,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000004F-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -4288,9 +4134,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000050-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -4315,9 +4159,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000051-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -4342,9 +4184,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000052-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -4369,9 +4209,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000053-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -4396,9 +4234,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000054-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -4423,9 +4259,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000055-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -4450,9 +4284,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000056-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -4477,9 +4309,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000057-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -4504,9 +4334,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000058-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -4531,9 +4359,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000059-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -4558,9 +4384,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000005A-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -4585,9 +4409,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000005B-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -4612,9 +4434,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000005C-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -4639,9 +4459,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000005D-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -4666,9 +4484,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000005E-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -4693,9 +4509,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000005F-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -4720,9 +4534,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000060-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -4747,9 +4559,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000061-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -4774,9 +4584,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000062-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -4801,9 +4609,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000063-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -4828,9 +4634,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000064-8AA5-4A32-98E6-ADF240057B3F}"/>
                 </c:ext>
@@ -4894,7 +4698,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>corona!$G$2:$G$100</c:f>
+              <c:f>data!$G$2:$G$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="99"/>
@@ -4911,14 +4715,14 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>corona!$F$2:$F$100</c15:f>
+                <c15:f>data!$F$2:$F$100</c15:f>
                 <c15:dlblRangeCache>
                   <c:ptCount val="99"/>
                   <c:pt idx="45">
                     <c:v>DPCM 8.3.2020</c:v>
                   </c:pt>
                   <c:pt idx="46">
-                    <c:v>DPCM 9.3.2020</c:v>
+                    <c:v>DPCM 9.3.2020 #IORESTOACASA</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -6136,8 +5940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="V29" sqref="V29"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6147,7 +5951,7 @@
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="19.140625" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/coronavirus-trend-italia.xlsx
+++ b/coronavirus-trend-italia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giovanni.mauramati\Documents\GitHub\COVID-19-Trend-Italia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535ED2B3-0F1A-4DE0-A6BF-1179E0D74853}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62B7D76-BB37-4375-B352-8520561C979E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Data</t>
   </si>
@@ -58,12 +58,42 @@
   <si>
     <t>DPCM 9.3.2020 #IORESTOACASA</t>
   </si>
+  <si>
+    <t>Contagi totali Italia</t>
+  </si>
+  <si>
+    <t>Contagi totali Cina</t>
+  </si>
+  <si>
+    <t>Nuove morti Cina</t>
+  </si>
+  <si>
+    <t>Nuovi guariti Cina</t>
+  </si>
+  <si>
+    <t>Guariti totali Cina</t>
+  </si>
+  <si>
+    <t>Guariti totali Italia</t>
+  </si>
+  <si>
+    <t>Morti totali Cina</t>
+  </si>
+  <si>
+    <t>Morti totali Italia</t>
+  </si>
+  <si>
+    <t>ITALIA</t>
+  </si>
+  <si>
+    <t>CINA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,8 +228,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -379,6 +431,36 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7C80"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -540,10 +622,28 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -589,12 +689,117 @@
     <cellStyle name="Valore non valido" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Valore valido" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="90" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF7C80"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -647,11 +852,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>Coronavirus - Andamento</a:t>
+              <a:t>COVID-19, Andamento</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="it-IT" baseline="0"/>
-              <a:t> nuovi casi</a:t>
+              <a:t> fenomeno in Italia</a:t>
             </a:r>
             <a:endParaRPr lang="it-IT"/>
           </a:p>
@@ -699,24 +904,25 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>data!$C$1</c:f>
+              <c:f>data!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Nuovi contagi China</c:v>
+                  <c:v>Nuovi contagi Italia</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="9525" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst>
@@ -732,7 +938,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>data!$A$2:$A$100</c:f>
+              <c:f>data!$A$3:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="99"/>
@@ -885,153 +1091,153 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$C$2:$C$100</c:f>
+              <c:f>data!$B$3:$B$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>92</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>277</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>483</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>663</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>801</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2631</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>576</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2054</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1659</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2088</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4736</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3086</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3987</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3729</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3144</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3522</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2703</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3012</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2516</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2021</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>372</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>15133</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6460</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2099</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1918</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1775</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>407</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>453</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>473</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1450</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>16</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>214</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>508</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>405</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>433</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>326</c:v>
+                  <c:v>233</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>427</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>575</c:v>
+                  <c:v>566</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>200</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>125</c:v>
+                  <c:v>466</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>120</c:v>
+                  <c:v>587</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>151</c:v>
+                  <c:v>769</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>151</c:v>
+                  <c:v>778</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>79</c:v>
+                  <c:v>1247</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>47</c:v>
+                  <c:v>1492</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>36</c:v>
+                  <c:v>1797</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>22</c:v>
+                  <c:v>977</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1039,16 +1245,730 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E58F-4580-A6BE-3A60069945AC}"/>
+              <c16:uniqueId val="{00000000-BA29-4AC2-8D78-C074C75CA120}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Contagi totali Italia</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$C$3:$C$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>655</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>888</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1128</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1694</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2502</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3089</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3858</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4636</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5883</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7375</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9172</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10149</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F452-4CB6-9DDF-0AB97285C048}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nuovi guariti Italia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>data!$A$3:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>43853</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43854</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43855</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43856</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43857</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43858</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43859</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43860</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43861</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43862</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43863</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43864</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43865</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43866</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43867</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43868</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43869</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43870</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43871</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43872</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43873</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43874</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43875</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43876</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43877</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43878</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43879</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43880</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43881</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43882</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43883</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43884</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43885</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43886</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43887</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43888</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43889</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43890</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43892</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43893</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43894</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43895</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43896</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43897</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43898</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43899</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$F$3:$F$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BA29-4AC2-8D78-C074C75CA120}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Guariti totali Italia</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$G$3:$G$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>937</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1112</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1211</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1346</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1448</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000074-F452-4CB6-9DDF-0AB97285C048}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>data!$D$1</c:f>
+              <c:f>data!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1056,6 +1976,344 @@
                 </c:pt>
               </c:strCache>
             </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>data!$A$3:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>43853</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43854</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43855</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43856</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43857</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43858</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43859</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43860</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43861</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43862</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43863</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43864</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43865</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43866</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43867</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43868</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43869</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43870</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43871</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43872</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43873</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43874</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43875</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43876</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43877</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43878</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43879</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43880</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43881</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43882</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43883</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43884</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43885</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43886</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43887</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43888</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43889</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43890</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43892</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43893</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43894</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43895</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43896</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43897</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43898</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43899</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$D$3:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>168</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BA29-4AC2-8D78-C074C75CA120}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Morti totali Italia</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="34925" cap="rnd">
@@ -1075,165 +2333,12 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>data!$A$2:$A$100</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="99"/>
-                <c:pt idx="0">
-                  <c:v>43853</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43854</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43855</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43856</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43857</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43858</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43859</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43860</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43861</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43862</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43863</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43864</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43865</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43866</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43867</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43868</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>43869</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>43870</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>43871</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>43872</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>43873</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43874</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>43875</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>43876</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>43877</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>43878</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>43879</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>43880</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>43881</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>43882</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>43883</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>43884</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>43885</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>43886</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>43887</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>43888</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>43889</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>43890</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>43891</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>43892</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>43893</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43894</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43895</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43896</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>43897</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>43898</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>43899</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>43900</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$D$2:$D$100</c:f>
+              <c:f>data!$E$3:$E$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1325,58 +2430,58 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>18</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>27</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>28</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>41</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>49</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>36</c:v>
+                  <c:v>233</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>133</c:v>
+                  <c:v>366</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>97</c:v>
+                  <c:v>463</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>168</c:v>
+                  <c:v>631</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1384,703 +2489,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BA29-4AC2-8D78-C074C75CA120}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>data!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Nuovi guariti Italia</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>data!$A$2:$A$100</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="99"/>
-                <c:pt idx="0">
-                  <c:v>43853</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43854</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43855</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43856</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43857</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43858</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43859</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43860</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43861</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43862</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43863</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43864</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43865</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43866</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43867</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43868</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>43869</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>43870</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>43871</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>43872</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>43873</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43874</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>43875</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>43876</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>43877</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>43878</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>43879</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>43880</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>43881</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>43882</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>43883</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>43884</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>43885</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>43886</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>43887</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>43888</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>43889</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>43890</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>43891</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>43892</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>43893</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43894</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43895</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43896</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>43897</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>43898</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>43899</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>43900</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>data!$E$2:$E$100</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="99"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BA29-4AC2-8D78-C074C75CA120}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>data!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Nuovi contagi Italia</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>data!$A$2:$A$100</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="99"/>
-                <c:pt idx="0">
-                  <c:v>43853</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43854</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43855</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43856</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43857</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43858</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43859</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43860</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43861</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43862</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43863</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43864</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43865</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43866</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43867</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43868</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>43869</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>43870</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>43871</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>43872</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>43873</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43874</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>43875</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>43876</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>43877</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>43878</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>43879</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>43880</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>43881</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>43882</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>43883</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>43884</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>43885</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>43886</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>43887</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>43888</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>43889</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>43890</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>43891</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>43892</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>43893</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43894</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43895</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43896</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>43897</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>43898</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>43899</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>43900</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>data!$B$2:$B$100</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="99"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>233</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>566</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>342</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>466</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>587</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>769</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>778</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1247</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1492</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1797</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>977</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BA29-4AC2-8D78-C074C75CA120}"/>
+              <c16:uniqueId val="{00000076-F452-4CB6-9DDF-0AB97285C048}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="6"/>
           <c:tx>
             <c:v>Evento</c:v>
           </c:tx>
@@ -3281,7 +3696,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BB19587B-01CA-4AE5-94C5-018F17666E6B}" type="CELLRANGE">
+                    <a:fld id="{FA94B154-1C45-4475-A29C-6307BF7EAB78}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3300,6 +3715,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -3314,7 +3730,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E700C9CC-C0B3-488F-A580-9B5E2A598181}" type="CELLRANGE">
+                    <a:fld id="{EBFF1241-C493-471D-808C-0F68A415D269}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3333,6 +3749,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4698,15 +5115,15 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>data!$G$2:$G$100</c:f>
+              <c:f>data!$O$3:$O$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="45">
-                  <c:v>1492</c:v>
+                  <c:v>11000</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1797</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4715,7 +5132,7 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>data!$F$2:$F$100</c15:f>
+                <c15:f>data!$N$3:$N$101</c15:f>
                 <c15:dlblRangeCache>
                   <c:ptCount val="99"/>
                   <c:pt idx="45">
@@ -4740,6 +5157,1710 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="1189625023"/>
+        <c:axId val="1246921471"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1189625023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>DATA</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1246921471"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1246921471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>CASI</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1189625023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>COVID-19, Andamento</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> fenomeno in Cina</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nuovi contagi China</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>data!$A$3:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>43853</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43854</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43855</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43856</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43857</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43858</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43859</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43860</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43861</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43862</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43863</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43864</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43865</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43866</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43867</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43868</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43869</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43870</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43871</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43872</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43873</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43874</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43875</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43876</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43877</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43878</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43879</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43880</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43881</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43882</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43883</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43884</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43885</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43886</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43887</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43888</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43889</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43890</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43892</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43893</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43894</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43895</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43896</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43897</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43898</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43899</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$H$3:$H$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>663</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2631</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2054</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1659</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2088</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4736</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3086</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3987</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3729</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3144</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3522</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2703</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2516</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15133</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6460</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2055</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2099</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1918</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1775</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EDFE-40F1-9F64-9BA6BDBA6C0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Contagi totali Cina</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$I$3:$I$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>639</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>916</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1399</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2062</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2863</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5494</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6070</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8124</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9783</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11871</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16607</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19693</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23680</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27409</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30553</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>34075</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>36778</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39790</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42306</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44327</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44699</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>59832</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>66292</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>68347</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>70446</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>72364</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>74139</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>74546</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>74999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>75472</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>76922</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>76938</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>77152</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>77660</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>78065</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>78498</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>78824</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>79251</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>79826</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>80026</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>80151</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>80271</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>80422</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>80573</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>80652</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>80699</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>80735</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>80757</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000068-EDFE-40F1-9F64-9BA6BDBA6C0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Nuovi guariti Cina</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$L$3:$L$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>597</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>623</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>699</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>718</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1134</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1321</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1454</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1707</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1744</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1753</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>691</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3994</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1820</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2660</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2403</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2845</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3393</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2988</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2839</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2692</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2594</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2551</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2285</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1648</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1590</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1842</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1415</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1371</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000069-EDFE-40F1-9F64-9BA6BDBA6C0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Guariti totali Cina</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$M$3:$M$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>843</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1115</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1476</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2595</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3218</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3917</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4635</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5079</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6213</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7973</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9294</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10748</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12455</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14199</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15952</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>18693</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22687</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>23170</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>24990</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>27650</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>30053</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>32898</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36291</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>39279</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42118</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44810</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>47404</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>49955</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>52240</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>53888</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>55478</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>57320</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>58735</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>60106</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000006A-EDFE-40F1-9F64-9BA6BDBA6C0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Nuovi morti Cina</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$J$3:$J$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000006C-EDFE-40F1-9F64-9BA6BDBA6C0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Morti totali Cina</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$K$3:$K$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>562</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>632</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>717</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>804</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>904</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1011</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1111</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1116</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1368</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1520</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1662</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1765</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1863</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2114</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2236</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2236</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2441</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2443</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2593</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2663</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2715</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2744</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2788</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2835</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2870</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2912</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2945</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2981</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3013</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3042</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3070</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3097</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3120</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3136</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000006B-EDFE-40F1-9F64-9BA6BDBA6C0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
         <c:smooth val="0"/>
         <c:axId val="1189625023"/>
         <c:axId val="1246921471"/>
@@ -5049,6 +7170,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5584,20 +7745,516 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5622,18 +8279,64 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E736A345-5CBD-4062-BC17-7A54741FB4B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A10C3AE9-47D6-4D3B-B79D-3455C3B043FC}" name="Tabella1" displayName="Tabella1" ref="A1:G49" totalsRowShown="0">
-  <autoFilter ref="A1:G49" xr:uid="{8E3163F1-C996-4F04-8EA7-BB34EF194DE5}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{10117B41-90FB-45E9-AA8D-FE9DBFA555D8}" name="Data" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{AEA433C9-2972-441B-AF12-B0800EC060D2}" name="Nuovi contagi Italia"/>
-    <tableColumn id="3" xr3:uid="{C6E3A3F4-0BFA-4D0B-8C2D-77310EAD823F}" name="Nuovi contagi China"/>
-    <tableColumn id="4" xr3:uid="{88CD5087-A404-44E2-B560-5C153506DC3C}" name="Nuove morti Italia"/>
-    <tableColumn id="5" xr3:uid="{1A5C38B7-B757-4043-B8EB-248EFF7FEB56}" name="Nuovi guariti Italia"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A10C3AE9-47D6-4D3B-B79D-3455C3B043FC}" name="Tabella1" displayName="Tabella1" ref="A2:O50" totalsRowShown="0" headerRowDxfId="13">
+  <autoFilter ref="A2:O50" xr:uid="{8E3163F1-C996-4F04-8EA7-BB34EF194DE5}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{10117B41-90FB-45E9-AA8D-FE9DBFA555D8}" name="Data" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{AEA433C9-2972-441B-AF12-B0800EC060D2}" name="Nuovi contagi Italia" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{54B193CB-6D4F-4FC3-BAB0-FB6B2C2838BA}" name="Contagi totali Italia" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{88CD5087-A404-44E2-B560-5C153506DC3C}" name="Nuove morti Italia" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{2401C1BE-B2A4-4755-A485-B35A6F1ADD3E}" name="Morti totali Italia" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{1A5C38B7-B757-4043-B8EB-248EFF7FEB56}" name="Nuovi guariti Italia" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{0154BF69-C683-4C09-977A-C9F5FA242F7A}" name="Guariti totali Italia" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{C6E3A3F4-0BFA-4D0B-8C2D-77310EAD823F}" name="Nuovi contagi China" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{59CB8007-1331-4D95-88E1-4D16F1241B82}" name="Contagi totali Cina" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{B98E1D81-5EF9-4B27-9504-414B347707C3}" name="Nuove morti Cina" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{26CA99C1-8358-4AD8-A740-32FED49B407A}" name="Morti totali Cina" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{051FC29F-19BD-4BEA-818B-6EAAF96D3FD0}" name="Nuovi guariti Cina" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{4776DDAB-A49F-4F5A-9703-08F5D13DA29B}" name="Guariti totali Cina" dataDxfId="6"/>
     <tableColumn id="6" xr3:uid="{D9690C8D-FAFB-4311-9B3A-05806D11AEE8}" name="Evento"/>
     <tableColumn id="7" xr3:uid="{5185276A-493A-4856-8A3A-721CB1165664}" name="Event line"/>
   </tableColumns>
@@ -5938,875 +8641,2078 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AE5" sqref="AE5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" customWidth="1"/>
+    <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="6" customWidth="1"/>
+    <col min="16" max="16" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="B1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" spans="1:15" ht="99" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43853</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>92</v>
+      </c>
+      <c r="I3" s="5">
+        <v>639</v>
+      </c>
+      <c r="J3" s="7">
+        <v>18</v>
+      </c>
+      <c r="K3" s="7">
+        <v>18</v>
+      </c>
+      <c r="L3" s="6">
+        <v>30</v>
+      </c>
+      <c r="M3" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>277</v>
+      </c>
+      <c r="I4" s="5">
+        <v>916</v>
+      </c>
+      <c r="J4" s="7">
+        <v>8</v>
+      </c>
+      <c r="K4" s="7">
+        <v>26</v>
+      </c>
+      <c r="L4" s="6">
+        <v>6</v>
+      </c>
+      <c r="M4" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43855</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>483</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1399</v>
+      </c>
+      <c r="J5" s="7">
+        <v>16</v>
+      </c>
+      <c r="K5" s="7">
+        <v>42</v>
+      </c>
+      <c r="L5" s="6">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="M5" s="6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43856</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>663</v>
+      </c>
+      <c r="I6" s="5">
+        <v>2062</v>
+      </c>
+      <c r="J6" s="7">
+        <v>14</v>
+      </c>
+      <c r="K6" s="7">
+        <v>56</v>
+      </c>
+      <c r="L6" s="6">
+        <v>10</v>
+      </c>
+      <c r="M6" s="6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43857</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>801</v>
+      </c>
+      <c r="I7" s="5">
+        <v>2863</v>
+      </c>
+      <c r="J7" s="7">
+        <v>26</v>
+      </c>
+      <c r="K7" s="7">
+        <v>82</v>
+      </c>
+      <c r="L7" s="6">
+        <v>9</v>
+      </c>
+      <c r="M7" s="6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43858</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>2631</v>
+      </c>
+      <c r="I8" s="5">
+        <v>5494</v>
+      </c>
+      <c r="J8" s="7">
+        <v>49</v>
+      </c>
+      <c r="K8" s="7">
+        <v>131</v>
+      </c>
+      <c r="L8" s="6">
+        <v>43</v>
+      </c>
+      <c r="M8" s="6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43859</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>576</v>
+      </c>
+      <c r="I9" s="5">
+        <v>6070</v>
+      </c>
+      <c r="J9" s="7">
+        <v>2</v>
+      </c>
+      <c r="K9" s="7">
+        <v>133</v>
+      </c>
+      <c r="L9" s="6">
+        <v>19</v>
+      </c>
+      <c r="M9" s="6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43860</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>2054</v>
+      </c>
+      <c r="I10" s="5">
+        <v>8124</v>
+      </c>
+      <c r="J10" s="7">
+        <v>38</v>
+      </c>
+      <c r="K10" s="7">
+        <v>171</v>
+      </c>
+      <c r="L10" s="6">
+        <v>15</v>
+      </c>
+      <c r="M10" s="6">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43861</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1659</v>
+      </c>
+      <c r="I11" s="5">
+        <v>9783</v>
+      </c>
+      <c r="J11" s="7">
+        <v>42</v>
+      </c>
+      <c r="K11" s="7">
+        <v>213</v>
+      </c>
+      <c r="L11" s="6">
+        <v>79</v>
+      </c>
+      <c r="M11" s="6">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43862</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>2088</v>
+      </c>
+      <c r="I12" s="5">
+        <v>11871</v>
+      </c>
+      <c r="J12" s="7">
+        <v>46</v>
+      </c>
+      <c r="K12" s="7">
+        <v>259</v>
+      </c>
+      <c r="L12" s="6">
+        <v>61</v>
+      </c>
+      <c r="M12" s="6">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43863</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>4736</v>
+      </c>
+      <c r="I13" s="5">
+        <v>16607</v>
+      </c>
+      <c r="J13" s="7">
+        <v>102</v>
+      </c>
+      <c r="K13" s="7">
+        <v>361</v>
+      </c>
+      <c r="L13" s="6">
+        <v>188</v>
+      </c>
+      <c r="M13" s="6">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43864</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>3086</v>
+      </c>
+      <c r="I14" s="5">
+        <v>19693</v>
+      </c>
+      <c r="J14" s="7">
+        <v>64</v>
+      </c>
+      <c r="K14" s="7">
+        <v>425</v>
+      </c>
+      <c r="L14" s="6">
+        <v>151</v>
+      </c>
+      <c r="M14" s="6">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43865</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>3987</v>
+      </c>
+      <c r="I15" s="5">
+        <v>23680</v>
+      </c>
+      <c r="J15" s="7">
+        <v>65</v>
+      </c>
+      <c r="K15" s="7">
+        <v>490</v>
+      </c>
+      <c r="L15" s="6">
+        <v>229</v>
+      </c>
+      <c r="M15" s="6">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43866</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>3729</v>
+      </c>
+      <c r="I16" s="5">
+        <v>27409</v>
+      </c>
+      <c r="J16" s="7">
+        <v>72</v>
+      </c>
+      <c r="K16" s="7">
+        <v>562</v>
+      </c>
+      <c r="L16" s="6">
+        <v>272</v>
+      </c>
+      <c r="M16" s="6">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43867</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>3144</v>
+      </c>
+      <c r="I17" s="5">
+        <v>30553</v>
+      </c>
+      <c r="J17" s="7">
+        <v>70</v>
+      </c>
+      <c r="K17" s="7">
+        <v>632</v>
+      </c>
+      <c r="L17" s="6">
+        <v>361</v>
+      </c>
+      <c r="M17" s="6">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43868</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5">
+        <v>3</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>3522</v>
+      </c>
+      <c r="I18" s="5">
+        <v>34075</v>
+      </c>
+      <c r="J18" s="7">
+        <v>85</v>
+      </c>
+      <c r="K18" s="7">
+        <v>717</v>
+      </c>
+      <c r="L18" s="6">
+        <v>522</v>
+      </c>
+      <c r="M18" s="6">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43869</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0</v>
+      </c>
+      <c r="C19" s="5">
+        <v>3</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <v>2703</v>
+      </c>
+      <c r="I19" s="5">
+        <v>36778</v>
+      </c>
+      <c r="J19" s="7">
+        <v>87</v>
+      </c>
+      <c r="K19" s="7">
+        <v>804</v>
+      </c>
+      <c r="L19" s="6">
+        <v>597</v>
+      </c>
+      <c r="M19" s="6">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43870</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>3</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>3012</v>
+      </c>
+      <c r="I20" s="5">
+        <v>39790</v>
+      </c>
+      <c r="J20" s="7">
+        <v>100</v>
+      </c>
+      <c r="K20" s="7">
+        <v>904</v>
+      </c>
+      <c r="L20" s="6">
+        <v>623</v>
+      </c>
+      <c r="M20" s="6">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43871</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5">
+        <v>3</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
+        <v>2516</v>
+      </c>
+      <c r="I21" s="5">
+        <v>42306</v>
+      </c>
+      <c r="J21" s="7">
+        <v>107</v>
+      </c>
+      <c r="K21" s="7">
+        <v>1011</v>
+      </c>
+      <c r="L21" s="6">
+        <v>699</v>
+      </c>
+      <c r="M21" s="6">
+        <v>3917</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43872</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>3</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
+        <v>2021</v>
+      </c>
+      <c r="I22" s="5">
+        <v>44327</v>
+      </c>
+      <c r="J22" s="7">
+        <v>100</v>
+      </c>
+      <c r="K22" s="7">
+        <v>1111</v>
+      </c>
+      <c r="L22" s="6">
+        <v>718</v>
+      </c>
+      <c r="M22" s="6">
+        <v>4635</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43873</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0</v>
+      </c>
+      <c r="C23" s="5">
+        <v>3</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5">
+        <v>372</v>
+      </c>
+      <c r="I23" s="5">
+        <v>44699</v>
+      </c>
+      <c r="J23" s="7">
+        <v>5</v>
+      </c>
+      <c r="K23" s="7">
+        <v>1116</v>
+      </c>
+      <c r="L23" s="6">
+        <v>444</v>
+      </c>
+      <c r="M23" s="6">
+        <v>5079</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43874</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0</v>
+      </c>
+      <c r="C24" s="5">
+        <v>3</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
+        <v>15133</v>
+      </c>
+      <c r="I24" s="5">
+        <v>59832</v>
+      </c>
+      <c r="J24" s="7">
+        <v>252</v>
+      </c>
+      <c r="K24" s="7">
+        <v>1368</v>
+      </c>
+      <c r="L24" s="6">
+        <v>1134</v>
+      </c>
+      <c r="M24" s="6">
+        <v>6213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43875</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0</v>
+      </c>
+      <c r="C25" s="5">
+        <v>3</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0</v>
+      </c>
+      <c r="H25" s="5">
+        <v>6460</v>
+      </c>
+      <c r="I25" s="5">
+        <v>66292</v>
+      </c>
+      <c r="J25" s="7">
+        <v>152</v>
+      </c>
+      <c r="K25" s="7">
+        <v>1520</v>
+      </c>
+      <c r="L25" s="6">
+        <v>1760</v>
+      </c>
+      <c r="M25" s="6">
+        <v>7973</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>43876</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0</v>
+      </c>
+      <c r="C26" s="5">
+        <v>3</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
+        <v>2055</v>
+      </c>
+      <c r="I26" s="5">
+        <v>68347</v>
+      </c>
+      <c r="J26" s="7">
+        <v>142</v>
+      </c>
+      <c r="K26" s="7">
+        <v>1662</v>
+      </c>
+      <c r="L26" s="6">
+        <v>1321</v>
+      </c>
+      <c r="M26" s="6">
+        <v>9294</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>43877</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0</v>
+      </c>
+      <c r="C27" s="5">
+        <v>3</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
+        <v>2099</v>
+      </c>
+      <c r="I27" s="5">
+        <v>70446</v>
+      </c>
+      <c r="J27" s="7">
+        <v>103</v>
+      </c>
+      <c r="K27" s="7">
+        <v>1765</v>
+      </c>
+      <c r="L27" s="6">
+        <v>1454</v>
+      </c>
+      <c r="M27" s="6">
+        <v>10748</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>43878</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0</v>
+      </c>
+      <c r="C28" s="5">
+        <v>3</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
+        <v>1918</v>
+      </c>
+      <c r="I28" s="5">
+        <v>72364</v>
+      </c>
+      <c r="J28" s="7">
+        <v>98</v>
+      </c>
+      <c r="K28" s="7">
+        <v>1863</v>
+      </c>
+      <c r="L28" s="6">
+        <v>1707</v>
+      </c>
+      <c r="M28" s="6">
+        <v>12455</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43879</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0</v>
+      </c>
+      <c r="C29" s="5">
+        <v>3</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0</v>
+      </c>
+      <c r="H29" s="5">
+        <v>1775</v>
+      </c>
+      <c r="I29" s="5">
+        <v>74139</v>
+      </c>
+      <c r="J29" s="7">
+        <v>139</v>
+      </c>
+      <c r="K29" s="7">
+        <v>2002</v>
+      </c>
+      <c r="L29" s="6">
+        <v>1744</v>
+      </c>
+      <c r="M29" s="6">
+        <v>14199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43880</v>
+      </c>
+      <c r="B30" s="5">
+        <v>0</v>
+      </c>
+      <c r="C30" s="5">
+        <v>3</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5">
+        <v>407</v>
+      </c>
+      <c r="I30" s="5">
+        <v>74546</v>
+      </c>
+      <c r="J30" s="7">
+        <v>112</v>
+      </c>
+      <c r="K30" s="7">
+        <v>2114</v>
+      </c>
+      <c r="L30" s="6">
+        <v>1753</v>
+      </c>
+      <c r="M30" s="6">
+        <v>15952</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43881</v>
+      </c>
+      <c r="B31" s="5">
+        <v>0</v>
+      </c>
+      <c r="C31" s="5">
+        <v>3</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
+        <v>453</v>
+      </c>
+      <c r="I31" s="5">
+        <v>74999</v>
+      </c>
+      <c r="J31" s="7">
+        <v>122</v>
+      </c>
+      <c r="K31" s="7">
+        <v>2236</v>
+      </c>
+      <c r="L31" s="6">
+        <v>2050</v>
+      </c>
+      <c r="M31" s="6">
+        <v>18002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B32" s="5">
+        <v>17</v>
+      </c>
+      <c r="C32" s="5">
+        <v>20</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1</v>
+      </c>
+      <c r="F32" s="6">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
+        <v>473</v>
+      </c>
+      <c r="I32" s="5">
+        <v>75472</v>
+      </c>
+      <c r="J32" s="7">
+        <v>0</v>
+      </c>
+      <c r="K32" s="7">
+        <v>2236</v>
+      </c>
+      <c r="L32" s="6">
+        <v>691</v>
+      </c>
+      <c r="M32" s="6">
+        <v>18693</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B33" s="5">
+        <v>42</v>
+      </c>
+      <c r="C33" s="5">
+        <v>62</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1</v>
+      </c>
+      <c r="E33" s="7">
+        <v>2</v>
+      </c>
+      <c r="F33" s="6">
+        <v>1</v>
+      </c>
+      <c r="G33" s="6">
+        <v>1</v>
+      </c>
+      <c r="H33" s="5">
+        <v>1450</v>
+      </c>
+      <c r="I33" s="5">
+        <v>76922</v>
+      </c>
+      <c r="J33" s="7">
+        <v>205</v>
+      </c>
+      <c r="K33" s="7">
+        <v>2441</v>
+      </c>
+      <c r="L33" s="6">
+        <v>3994</v>
+      </c>
+      <c r="M33" s="6">
+        <v>22687</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B34" s="5">
+        <v>93</v>
+      </c>
+      <c r="C34" s="5">
+        <v>155</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1</v>
+      </c>
+      <c r="E34" s="7">
+        <v>3</v>
+      </c>
+      <c r="F34" s="6">
+        <v>1</v>
+      </c>
+      <c r="G34" s="6">
+        <v>3</v>
+      </c>
+      <c r="H34" s="5">
+        <v>16</v>
+      </c>
+      <c r="I34" s="5">
+        <v>76938</v>
+      </c>
+      <c r="J34" s="7">
+        <v>2</v>
+      </c>
+      <c r="K34" s="7">
+        <v>2443</v>
+      </c>
+      <c r="L34" s="6">
+        <v>483</v>
+      </c>
+      <c r="M34" s="6">
+        <v>23170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>43885</v>
+      </c>
+      <c r="B35" s="5">
+        <v>74</v>
+      </c>
+      <c r="C35" s="5">
+        <v>229</v>
+      </c>
+      <c r="D35" s="7">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E35" s="7">
+        <v>7</v>
+      </c>
+      <c r="F35" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G35" s="6">
+        <v>3</v>
+      </c>
+      <c r="H35" s="5">
+        <v>214</v>
+      </c>
+      <c r="I35" s="5">
+        <v>77152</v>
+      </c>
+      <c r="J35" s="7">
+        <v>150</v>
+      </c>
+      <c r="K35" s="7">
+        <v>2593</v>
+      </c>
+      <c r="L35" s="6">
+        <v>1820</v>
+      </c>
+      <c r="M35" s="6">
+        <v>24990</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>43886</v>
+      </c>
+      <c r="B36" s="5">
+        <v>93</v>
+      </c>
+      <c r="C36" s="5">
+        <v>322</v>
+      </c>
+      <c r="D36" s="7">
+        <v>3</v>
+      </c>
+      <c r="E36" s="7">
+        <v>10</v>
+      </c>
+      <c r="F36" s="6">
+        <v>0</v>
+      </c>
+      <c r="G36" s="6">
+        <v>2</v>
+      </c>
+      <c r="H36" s="5">
+        <v>508</v>
+      </c>
+      <c r="I36" s="5">
+        <v>77660</v>
+      </c>
+      <c r="J36" s="7">
+        <v>70</v>
+      </c>
+      <c r="K36" s="7">
+        <v>2663</v>
+      </c>
+      <c r="L36" s="6">
+        <v>2660</v>
+      </c>
+      <c r="M36" s="6">
+        <v>27650</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>43887</v>
+      </c>
+      <c r="B37" s="5">
+        <v>131</v>
+      </c>
+      <c r="C37" s="5">
+        <v>453</v>
+      </c>
+      <c r="D37" s="7">
+        <v>2</v>
+      </c>
+      <c r="E37" s="7">
+        <v>12</v>
+      </c>
+      <c r="F37" s="6">
+        <v>2</v>
+      </c>
+      <c r="G37" s="6">
+        <v>4</v>
+      </c>
+      <c r="H37" s="5">
+        <v>405</v>
+      </c>
+      <c r="I37" s="5">
+        <v>78065</v>
+      </c>
+      <c r="J37" s="7">
+        <v>52</v>
+      </c>
+      <c r="K37" s="7">
+        <v>2715</v>
+      </c>
+      <c r="L37" s="6">
+        <v>2403</v>
+      </c>
+      <c r="M37" s="6">
+        <v>30053</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>43888</v>
+      </c>
+      <c r="B38" s="5">
+        <v>202</v>
+      </c>
+      <c r="C38" s="5">
+        <v>655</v>
+      </c>
+      <c r="D38" s="7">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
+      <c r="E38" s="7">
+        <v>17</v>
+      </c>
+      <c r="F38" s="6">
+        <v>42</v>
+      </c>
+      <c r="G38" s="6">
+        <v>48</v>
+      </c>
+      <c r="H38" s="5">
+        <v>433</v>
+      </c>
+      <c r="I38" s="5">
+        <v>78498</v>
+      </c>
+      <c r="J38" s="7">
+        <v>29</v>
+      </c>
+      <c r="K38" s="7">
+        <v>2744</v>
+      </c>
+      <c r="L38" s="6">
+        <v>2845</v>
+      </c>
+      <c r="M38" s="6">
+        <v>32898</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>43853</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>43889</v>
+      </c>
+      <c r="B39" s="5">
+        <v>233</v>
+      </c>
+      <c r="C39" s="5">
+        <v>888</v>
+      </c>
+      <c r="D39" s="7">
+        <v>4</v>
+      </c>
+      <c r="E39" s="7">
+        <v>21</v>
+      </c>
+      <c r="F39" s="6">
+        <v>1</v>
+      </c>
+      <c r="G39" s="6">
+        <v>91</v>
+      </c>
+      <c r="H39" s="5">
+        <v>326</v>
+      </c>
+      <c r="I39" s="5">
+        <v>78824</v>
+      </c>
+      <c r="J39" s="7">
+        <v>44</v>
+      </c>
+      <c r="K39" s="7">
+        <v>2788</v>
+      </c>
+      <c r="L39" s="6">
+        <v>3393</v>
+      </c>
+      <c r="M39" s="6">
+        <v>36291</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>43890</v>
+      </c>
+      <c r="B40" s="5">
+        <v>240</v>
+      </c>
+      <c r="C40" s="5">
+        <v>1128</v>
+      </c>
+      <c r="D40" s="7">
+        <v>8</v>
+      </c>
+      <c r="E40" s="7">
+        <v>29</v>
+      </c>
+      <c r="F40" s="6">
+        <v>0</v>
+      </c>
+      <c r="G40" s="6">
         <v>92</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+      <c r="H40" s="5">
+        <v>427</v>
+      </c>
+      <c r="I40" s="5">
+        <v>79251</v>
+      </c>
+      <c r="J40" s="7">
+        <v>47</v>
+      </c>
+      <c r="K40" s="7">
+        <v>2835</v>
+      </c>
+      <c r="L40" s="6">
+        <v>2988</v>
+      </c>
+      <c r="M40" s="6">
+        <v>39279</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43854</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>277</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>43891</v>
+      </c>
+      <c r="B41" s="5">
+        <v>566</v>
+      </c>
+      <c r="C41" s="5">
+        <v>1694</v>
+      </c>
+      <c r="D41" s="7">
+        <v>5</v>
+      </c>
+      <c r="E41" s="7">
+        <v>34</v>
+      </c>
+      <c r="F41" s="6">
+        <v>37</v>
+      </c>
+      <c r="G41" s="6">
+        <v>129</v>
+      </c>
+      <c r="H41" s="5">
+        <v>575</v>
+      </c>
+      <c r="I41" s="5">
+        <v>79826</v>
+      </c>
+      <c r="J41" s="7">
+        <v>35</v>
+      </c>
+      <c r="K41" s="7">
+        <v>2870</v>
+      </c>
+      <c r="L41" s="6">
+        <v>2839</v>
+      </c>
+      <c r="M41" s="6">
+        <v>42118</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43855</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>483</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>43892</v>
+      </c>
+      <c r="B42" s="5">
+        <v>342</v>
+      </c>
+      <c r="C42" s="5">
+        <v>2036</v>
+      </c>
+      <c r="D42" s="7">
+        <v>18</v>
+      </c>
+      <c r="E42" s="7">
+        <v>52</v>
+      </c>
+      <c r="F42" s="6">
+        <v>66</v>
+      </c>
+      <c r="G42" s="6">
+        <v>232</v>
+      </c>
+      <c r="H42" s="5">
+        <v>200</v>
+      </c>
+      <c r="I42" s="5">
+        <v>80026</v>
+      </c>
+      <c r="J42" s="7">
+        <v>42</v>
+      </c>
+      <c r="K42" s="7">
+        <v>2912</v>
+      </c>
+      <c r="L42" s="6">
+        <v>2692</v>
+      </c>
+      <c r="M42" s="6">
+        <v>44810</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>43856</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>663</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>43893</v>
+      </c>
+      <c r="B43" s="5">
+        <v>466</v>
+      </c>
+      <c r="C43" s="5">
+        <v>2502</v>
+      </c>
+      <c r="D43" s="7">
+        <v>27</v>
+      </c>
+      <c r="E43" s="7">
+        <v>79</v>
+      </c>
+      <c r="F43" s="6">
+        <v>11</v>
+      </c>
+      <c r="G43" s="6">
+        <v>309</v>
+      </c>
+      <c r="H43" s="5">
+        <v>125</v>
+      </c>
+      <c r="I43" s="5">
+        <v>80151</v>
+      </c>
+      <c r="J43" s="7">
+        <v>33</v>
+      </c>
+      <c r="K43" s="7">
+        <v>2945</v>
+      </c>
+      <c r="L43" s="6">
+        <v>2594</v>
+      </c>
+      <c r="M43" s="6">
+        <v>47404</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>43857</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>801</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43894</v>
+      </c>
+      <c r="B44" s="5">
+        <v>587</v>
+      </c>
+      <c r="C44" s="5">
+        <v>3089</v>
+      </c>
+      <c r="D44" s="7">
+        <v>28</v>
+      </c>
+      <c r="E44" s="7">
+        <v>107</v>
+      </c>
+      <c r="F44" s="6">
+        <v>116</v>
+      </c>
+      <c r="G44" s="6">
+        <v>436</v>
+      </c>
+      <c r="H44" s="5">
+        <v>120</v>
+      </c>
+      <c r="I44" s="5">
+        <v>80271</v>
+      </c>
+      <c r="J44" s="7">
+        <v>36</v>
+      </c>
+      <c r="K44" s="7">
+        <v>2981</v>
+      </c>
+      <c r="L44" s="6">
+        <v>2551</v>
+      </c>
+      <c r="M44" s="6">
+        <v>49955</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>43858</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>2631</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43895</v>
+      </c>
+      <c r="B45" s="5">
+        <v>769</v>
+      </c>
+      <c r="C45" s="5">
+        <v>3858</v>
+      </c>
+      <c r="D45" s="7">
+        <v>41</v>
+      </c>
+      <c r="E45" s="7">
+        <v>148</v>
+      </c>
+      <c r="F45" s="6">
+        <v>138</v>
+      </c>
+      <c r="G45" s="6">
+        <v>690</v>
+      </c>
+      <c r="H45" s="5">
+        <v>151</v>
+      </c>
+      <c r="I45" s="5">
+        <v>80422</v>
+      </c>
+      <c r="J45" s="7">
+        <v>32</v>
+      </c>
+      <c r="K45" s="7">
+        <v>3013</v>
+      </c>
+      <c r="L45" s="6">
+        <v>2285</v>
+      </c>
+      <c r="M45" s="6">
+        <v>52240</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>43859</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>576</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>43896</v>
+      </c>
+      <c r="B46" s="5">
+        <v>778</v>
+      </c>
+      <c r="C46" s="5">
+        <v>4636</v>
+      </c>
+      <c r="D46" s="7">
+        <v>49</v>
+      </c>
+      <c r="E46" s="7">
+        <v>197</v>
+      </c>
+      <c r="F46" s="6">
+        <v>109</v>
+      </c>
+      <c r="G46" s="6">
+        <v>937</v>
+      </c>
+      <c r="H46" s="5">
+        <v>151</v>
+      </c>
+      <c r="I46" s="5">
+        <v>80573</v>
+      </c>
+      <c r="J46" s="7">
+        <v>29</v>
+      </c>
+      <c r="K46" s="7">
+        <v>3042</v>
+      </c>
+      <c r="L46" s="6">
+        <v>1648</v>
+      </c>
+      <c r="M46" s="6">
+        <v>53888</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>43860</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>2054</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>43897</v>
+      </c>
+      <c r="B47" s="5">
+        <v>1247</v>
+      </c>
+      <c r="C47" s="5">
+        <v>5883</v>
+      </c>
+      <c r="D47" s="7">
+        <v>36</v>
+      </c>
+      <c r="E47" s="7">
+        <v>233</v>
+      </c>
+      <c r="F47" s="6">
+        <v>66</v>
+      </c>
+      <c r="G47" s="6">
+        <v>1112</v>
+      </c>
+      <c r="H47" s="5">
+        <v>79</v>
+      </c>
+      <c r="I47" s="5">
+        <v>80652</v>
+      </c>
+      <c r="J47" s="7">
+        <v>28</v>
+      </c>
+      <c r="K47" s="7">
+        <v>3070</v>
+      </c>
+      <c r="L47" s="6">
+        <v>1590</v>
+      </c>
+      <c r="M47" s="6">
+        <v>55478</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>43861</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>1659</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>43898</v>
+      </c>
+      <c r="B48" s="5">
+        <v>1492</v>
+      </c>
+      <c r="C48" s="5">
+        <v>7375</v>
+      </c>
+      <c r="D48" s="7">
+        <v>133</v>
+      </c>
+      <c r="E48" s="7">
+        <v>366</v>
+      </c>
+      <c r="F48" s="6">
+        <v>33</v>
+      </c>
+      <c r="G48" s="6">
+        <v>1211</v>
+      </c>
+      <c r="H48" s="5">
+        <v>47</v>
+      </c>
+      <c r="I48" s="5">
+        <v>80699</v>
+      </c>
+      <c r="J48" s="7">
+        <v>27</v>
+      </c>
+      <c r="K48" s="7">
+        <v>3097</v>
+      </c>
+      <c r="L48" s="6">
+        <v>1842</v>
+      </c>
+      <c r="M48" s="6">
+        <v>57320</v>
+      </c>
+      <c r="N48" t="s">
+        <v>7</v>
+      </c>
+      <c r="O48">
+        <v>11000</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>43862</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>2088</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>43899</v>
+      </c>
+      <c r="B49" s="5">
+        <v>1797</v>
+      </c>
+      <c r="C49" s="5">
+        <v>9172</v>
+      </c>
+      <c r="D49" s="7">
+        <v>97</v>
+      </c>
+      <c r="E49" s="7">
+        <v>463</v>
+      </c>
+      <c r="F49" s="6">
+        <v>102</v>
+      </c>
+      <c r="G49" s="6">
+        <v>1346</v>
+      </c>
+      <c r="H49" s="5">
+        <v>36</v>
+      </c>
+      <c r="I49" s="5">
+        <v>80735</v>
+      </c>
+      <c r="J49" s="7">
+        <v>23</v>
+      </c>
+      <c r="K49" s="7">
+        <v>3120</v>
+      </c>
+      <c r="L49" s="6">
+        <v>1415</v>
+      </c>
+      <c r="M49" s="6">
+        <v>58735</v>
+      </c>
+      <c r="N49" t="s">
+        <v>8</v>
+      </c>
+      <c r="O49">
+        <v>12000</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>43863</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>4736</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>43864</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>3086</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>43865</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>3987</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>43866</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>3729</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>43867</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>3144</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>43868</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>3522</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>43869</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>2703</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>43870</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>3012</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>43871</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>2516</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>43872</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>2021</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>43873</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>372</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>43874</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>15133</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>43875</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>6460</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>43876</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>2055</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>43877</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>2099</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>43878</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>1918</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>43879</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>1775</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>43880</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>407</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>43881</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>453</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>43882</v>
-      </c>
-      <c r="B31">
-        <v>17</v>
-      </c>
-      <c r="C31">
-        <v>473</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>43883</v>
-      </c>
-      <c r="B32">
-        <v>42</v>
-      </c>
-      <c r="C32">
-        <v>1450</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>43884</v>
-      </c>
-      <c r="B33">
-        <v>93</v>
-      </c>
-      <c r="C33">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>43900</v>
+      </c>
+      <c r="B50" s="5">
+        <v>977</v>
+      </c>
+      <c r="C50" s="5">
+        <v>10149</v>
+      </c>
+      <c r="D50" s="7">
+        <v>168</v>
+      </c>
+      <c r="E50" s="7">
+        <v>631</v>
+      </c>
+      <c r="F50" s="6">
+        <v>0</v>
+      </c>
+      <c r="G50" s="6">
+        <v>1448</v>
+      </c>
+      <c r="H50" s="5">
+        <v>22</v>
+      </c>
+      <c r="I50" s="5">
+        <v>80757</v>
+      </c>
+      <c r="J50" s="7">
         <v>16</v>
       </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>43885</v>
-      </c>
-      <c r="B34">
-        <v>74</v>
-      </c>
-      <c r="C34">
-        <v>214</v>
-      </c>
-      <c r="D34">
-        <v>4</v>
-      </c>
-      <c r="E34">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>43886</v>
-      </c>
-      <c r="B35">
-        <v>93</v>
-      </c>
-      <c r="C35">
-        <v>508</v>
-      </c>
-      <c r="D35">
-        <v>3</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>43887</v>
-      </c>
-      <c r="B36">
-        <v>131</v>
-      </c>
-      <c r="C36">
-        <v>405</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>43888</v>
-      </c>
-      <c r="B37">
-        <v>202</v>
-      </c>
-      <c r="C37">
-        <v>433</v>
-      </c>
-      <c r="D37">
-        <v>5</v>
-      </c>
-      <c r="E37">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>43889</v>
-      </c>
-      <c r="B38">
-        <v>233</v>
-      </c>
-      <c r="C38">
-        <v>326</v>
-      </c>
-      <c r="D38">
-        <v>4</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>43890</v>
-      </c>
-      <c r="B39">
-        <v>240</v>
-      </c>
-      <c r="C39">
-        <v>427</v>
-      </c>
-      <c r="D39">
-        <v>8</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>43891</v>
-      </c>
-      <c r="B40">
-        <v>566</v>
-      </c>
-      <c r="C40">
-        <v>575</v>
-      </c>
-      <c r="D40">
-        <v>5</v>
-      </c>
-      <c r="E40">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>43892</v>
-      </c>
-      <c r="B41">
-        <v>342</v>
-      </c>
-      <c r="C41">
-        <v>200</v>
-      </c>
-      <c r="D41">
-        <v>18</v>
-      </c>
-      <c r="E41">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>43893</v>
-      </c>
-      <c r="B42">
-        <v>466</v>
-      </c>
-      <c r="C42">
-        <v>125</v>
-      </c>
-      <c r="D42">
-        <v>27</v>
-      </c>
-      <c r="E42">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>43894</v>
-      </c>
-      <c r="B43">
-        <v>587</v>
-      </c>
-      <c r="C43">
-        <v>120</v>
-      </c>
-      <c r="D43">
-        <v>28</v>
-      </c>
-      <c r="E43">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>43895</v>
-      </c>
-      <c r="B44">
-        <v>769</v>
-      </c>
-      <c r="C44">
-        <v>151</v>
-      </c>
-      <c r="D44">
-        <v>41</v>
-      </c>
-      <c r="E44">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>43896</v>
-      </c>
-      <c r="B45">
-        <v>778</v>
-      </c>
-      <c r="C45">
-        <v>151</v>
-      </c>
-      <c r="D45">
-        <v>49</v>
-      </c>
-      <c r="E45">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>43897</v>
-      </c>
-      <c r="B46">
-        <v>1247</v>
-      </c>
-      <c r="C46">
-        <v>79</v>
-      </c>
-      <c r="D46">
-        <v>36</v>
-      </c>
-      <c r="E46">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>43898</v>
-      </c>
-      <c r="B47">
-        <v>1492</v>
-      </c>
-      <c r="C47">
-        <v>47</v>
-      </c>
-      <c r="D47">
-        <v>133</v>
-      </c>
-      <c r="E47">
-        <v>33</v>
-      </c>
-      <c r="F47" t="s">
-        <v>7</v>
-      </c>
-      <c r="G47">
-        <v>1492</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>43899</v>
-      </c>
-      <c r="B48">
-        <v>1797</v>
-      </c>
-      <c r="C48">
-        <v>36</v>
-      </c>
-      <c r="D48">
-        <v>97</v>
-      </c>
-      <c r="E48">
-        <v>102</v>
-      </c>
-      <c r="F48" t="s">
-        <v>8</v>
-      </c>
-      <c r="G48">
-        <v>1797</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>43900</v>
-      </c>
-      <c r="B49">
-        <v>977</v>
-      </c>
-      <c r="C49">
-        <v>22</v>
-      </c>
-      <c r="D49">
-        <v>168</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
+      <c r="K50" s="7">
+        <v>3136</v>
+      </c>
+      <c r="L50" s="6">
+        <v>1371</v>
+      </c>
+      <c r="M50" s="6">
+        <v>60106</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:M1"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/coronavirus-trend-italia.xlsx
+++ b/coronavirus-trend-italia.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giovanni.mauramati\Documents\GitHub\COVID-19-Trend-Italia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62B7D76-BB37-4375-B352-8520561C979E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49614A8E-397F-4D3A-A05D-4AEB9FA2199C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
+    <sheet name="grafici" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Data</t>
   </si>
@@ -45,15 +46,6 @@
   </si>
   <si>
     <t>Nuovi guariti Italia</t>
-  </si>
-  <si>
-    <t>Evento</t>
-  </si>
-  <si>
-    <t>Event line</t>
-  </si>
-  <si>
-    <t>DPCM 8.3.2020</t>
   </si>
   <si>
     <t>DPCM 9.3.2020 #IORESTOACASA</t>
@@ -87,6 +79,48 @@
   </si>
   <si>
     <t>CINA</t>
+  </si>
+  <si>
+    <t>Evento Italia</t>
+  </si>
+  <si>
+    <t>Event line Italia</t>
+  </si>
+  <si>
+    <t>Evento Cina</t>
+  </si>
+  <si>
+    <t>Event line Cina</t>
+  </si>
+  <si>
+    <t>Isolamento città Wuhan</t>
+  </si>
+  <si>
+    <t>Estensione isolamento</t>
+  </si>
+  <si>
+    <t>Limitazione ingressi Cina</t>
+  </si>
+  <si>
+    <t>Inizio stop grandi attività produttive</t>
+  </si>
+  <si>
+    <t>Adeguamento conta casi a direttive OMS (inclusione casi asintomatici)</t>
+  </si>
+  <si>
+    <t>Chiusura scuole/No eventi pubblici</t>
+  </si>
+  <si>
+    <t>Chiusura negozi/locali</t>
+  </si>
+  <si>
+    <t>DPCM 1.3.2020 Chiusura Codogno</t>
+  </si>
+  <si>
+    <t>DPCM 4.3.2020 Chiusura scuole/eventi pubblici</t>
+  </si>
+  <si>
+    <t>DPCM 8.3.2020 Zona rossa Nord Italia</t>
   </si>
 </sst>
 </file>
@@ -622,7 +656,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -635,14 +669,15 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -694,7 +729,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-0.499984740745262"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -726,7 +761,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-0.499984740745262"/>
+          <bgColor rgb="FFFF7C80"/>
         </patternFill>
       </fill>
     </dxf>
@@ -758,7 +793,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFF7C80"/>
+          <bgColor theme="2" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -766,7 +801,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
+          <bgColor theme="2" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1086,6 +1121,9 @@
                 <c:pt idx="47">
                   <c:v>43900</c:v>
                 </c:pt>
+                <c:pt idx="48">
+                  <c:v>43901</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1239,13 +1277,16 @@
                 <c:pt idx="47">
                   <c:v>977</c:v>
                 </c:pt>
+                <c:pt idx="48">
+                  <c:v>2313</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BA29-4AC2-8D78-C074C75CA120}"/>
+              <c16:uniqueId val="{00000000-DDAA-459D-9CA2-E5512ECB2E5B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1275,10 +1316,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>data!$C$3:$C$50</c:f>
+              <c:f>data!$C$3:$C$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1422,6 +1463,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>10149</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>12462</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1429,7 +1473,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F452-4CB6-9DDF-0AB97285C048}"/>
+              <c16:uniqueId val="{00000001-DDAA-459D-9CA2-E5512ECB2E5B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1616,6 +1660,9 @@
                 <c:pt idx="47">
                   <c:v>43900</c:v>
                 </c:pt>
+                <c:pt idx="48">
+                  <c:v>43901</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1769,13 +1816,16 @@
                 <c:pt idx="47">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="48">
+                  <c:v>321</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BA29-4AC2-8D78-C074C75CA120}"/>
+              <c16:uniqueId val="{00000002-DDAA-459D-9CA2-E5512ECB2E5B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1903,55 +1953,58 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="35">
-                  <c:v>48</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>91</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>92</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>129</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>232</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>309</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>436</c:v>
+                  <c:v>276</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>690</c:v>
+                  <c:v>414</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>937</c:v>
+                  <c:v>523</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1112</c:v>
+                  <c:v>589</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1211</c:v>
+                  <c:v>622</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1346</c:v>
+                  <c:v>724</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1448</c:v>
+                  <c:v>724</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1959,7 +2012,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000074-F452-4CB6-9DDF-0AB97285C048}"/>
+              <c16:uniqueId val="{00000003-DDAA-459D-9CA2-E5512ECB2E5B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2146,6 +2199,9 @@
                 <c:pt idx="47">
                   <c:v>43900</c:v>
                 </c:pt>
+                <c:pt idx="48">
+                  <c:v>43901</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2299,13 +2355,16 @@
                 <c:pt idx="47">
                   <c:v>168</c:v>
                 </c:pt>
+                <c:pt idx="48">
+                  <c:v>196</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BA29-4AC2-8D78-C074C75CA120}"/>
+              <c16:uniqueId val="{00000004-DDAA-459D-9CA2-E5512ECB2E5B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2483,13 +2542,16 @@
                 <c:pt idx="47">
                   <c:v>631</c:v>
                 </c:pt>
+                <c:pt idx="48">
+                  <c:v>827</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000076-F452-4CB6-9DDF-0AB97285C048}"/>
+              <c16:uniqueId val="{00000005-DDAA-459D-9CA2-E5512ECB2E5B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2514,15 +2576,13 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="6"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
-              <a:ln w="0">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
                 <a:round/>
               </a:ln>
               <a:effectLst>
@@ -2534,35 +2594,6 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:dPt>
-            <c:idx val="45"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="6"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:ln w="0">
-                  <a:noFill/>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst>
-                  <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                    <a:srgbClr val="000000">
-                      <a:alpha val="63000"/>
-                    </a:srgbClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-8AA5-4A32-98E6-ADF240057B3F}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
@@ -2575,17 +2606,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2600,17 +2633,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2625,17 +2660,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2650,17 +2687,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2675,17 +2714,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2700,17 +2741,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2725,17 +2768,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2750,17 +2795,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2775,17 +2822,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2800,17 +2849,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2825,17 +2876,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2850,17 +2903,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2875,17 +2930,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000F-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2900,17 +2957,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000010-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2925,17 +2984,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000011-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2950,17 +3011,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000012-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2975,17 +3038,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000013-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3000,17 +3065,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000014-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3025,17 +3092,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000015-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000018-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3050,17 +3119,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000016-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000019-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3075,17 +3146,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000017-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001A-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3100,17 +3173,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000018-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001B-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3125,17 +3200,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000019-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001C-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3150,17 +3227,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001A-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001D-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3175,17 +3254,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001B-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001E-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3200,17 +3281,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001C-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001F-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3225,17 +3308,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001D-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000020-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3250,17 +3335,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001E-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000021-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3275,17 +3362,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001F-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000022-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3300,17 +3389,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000020-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000023-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3325,17 +3416,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000021-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000024-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3350,17 +3443,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000022-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000025-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3375,17 +3470,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000023-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000026-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3400,17 +3497,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000024-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000027-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3425,17 +3524,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000025-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000028-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3450,17 +3551,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000026-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000029-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3475,17 +3578,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000027-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002A-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3500,17 +3605,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000028-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002B-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3521,182 +3628,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000029-8AA5-4A32-98E6-ADF240057B3F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="39"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002A-8AA5-4A32-98E6-ADF240057B3F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="40"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002B-8AA5-4A32-98E6-ADF240057B3F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="41"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002C-8AA5-4A32-98E6-ADF240057B3F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="42"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002D-8AA5-4A32-98E6-ADF240057B3F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="43"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002E-8AA5-4A32-98E6-ADF240057B3F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="44"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002F-8AA5-4A32-98E6-ADF240057B3F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="45"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{FA94B154-1C45-4475-A29C-6307BF7EAB78}" type="CELLRANGE">
+                    <a:fld id="{15FD12A2-8291-415A-9D94-59E0D4862FAD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3705,7 +3637,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
+              <c:dLblPos val="l"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3719,18 +3651,72 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-8AA5-4A32-98E6-ADF240057B3F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="46"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{EBFF1241-C493-471D-808C-0F68A415D269}" type="CELLRANGE">
+                  <c16:uniqueId val="{0000002C-DDAA-459D-9CA2-E5512ECB2E5B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="39"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002D-DDAA-459D-9CA2-E5512ECB2E5B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="40"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002E-DDAA-459D-9CA2-E5512ECB2E5B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="41"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{35CA4D4F-9330-42FD-9288-D51B9C65C465}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3739,7 +3725,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
+              <c:dLblPos val="l"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3753,7 +3739,156 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000030-8AA5-4A32-98E6-ADF240057B3F}"/>
+                  <c16:uniqueId val="{0000002F-DDAA-459D-9CA2-E5512ECB2E5B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="42"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000030-DDAA-459D-9CA2-E5512ECB2E5B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="43"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000031-DDAA-459D-9CA2-E5512ECB2E5B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="44"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000032-DDAA-459D-9CA2-E5512ECB2E5B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="45"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0F4BB645-776E-4A97-BA12-C8A69A0C6160}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALLOCELLE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="it-IT"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000033-DDAA-459D-9CA2-E5512ECB2E5B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="46"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B3C5A0A6-4790-4D66-ADF6-2B4C2E29B3D0}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALLOCELLE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="it-IT"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000034-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3768,17 +3903,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000031-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000035-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3789,21 +3926,30 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000032-8AA5-4A32-98E6-ADF240057B3F}"/>
+                    <a:fld id="{98FBEB14-305E-49E2-83FB-B83856ACF033}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALLOCELLE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="it-IT"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000036-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3818,17 +3964,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000033-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000037-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3843,17 +3991,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000034-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000038-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3868,17 +4018,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000035-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000039-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3893,17 +4045,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000036-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003A-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3918,17 +4072,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000037-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003B-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3943,17 +4099,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000038-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003C-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3968,17 +4126,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000039-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003D-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3993,17 +4153,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003A-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003E-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4018,17 +4180,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003B-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003F-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4043,17 +4207,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003C-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000040-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4068,17 +4234,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003D-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000041-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4093,17 +4261,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003E-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000042-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4118,17 +4288,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003F-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000043-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4143,17 +4315,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000040-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000044-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4168,17 +4342,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000041-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000045-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4193,17 +4369,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000042-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000046-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4218,17 +4396,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000043-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000047-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4243,17 +4423,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000044-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000048-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4268,17 +4450,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000045-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000049-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4293,17 +4477,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000046-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000004A-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4318,17 +4504,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000047-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000004B-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4343,17 +4531,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000048-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000004C-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4368,17 +4558,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000049-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000004D-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4393,17 +4585,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000004A-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000004E-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4418,17 +4612,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000004B-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000004F-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4443,17 +4639,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000004C-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000050-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4468,17 +4666,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000004D-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000051-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4493,17 +4693,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000004E-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000052-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4518,17 +4720,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000004F-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000053-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4543,17 +4747,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000050-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000054-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4568,17 +4774,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000051-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000055-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4593,17 +4801,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000052-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000056-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4618,17 +4828,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000053-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000057-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4643,17 +4855,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000054-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000058-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4668,17 +4882,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000055-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000059-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4693,17 +4909,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000056-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000005A-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4718,17 +4936,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000057-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000005B-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4743,17 +4963,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000058-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000005C-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4768,17 +4990,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000059-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000005D-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4793,17 +5017,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000005A-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000005E-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4818,17 +5044,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000005B-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000005F-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4843,17 +5071,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000005C-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000060-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4868,17 +5098,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000005D-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000061-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4893,17 +5125,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000005E-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000062-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4918,17 +5152,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000005F-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000063-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4943,17 +5179,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000060-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000064-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4968,17 +5206,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000061-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000065-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4993,17 +5233,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000062-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000066-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5018,42 +5260,19 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000063-8AA5-4A32-98E6-ADF240057B3F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="98"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000064-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000067-DDAA-459D-9CA2-E5512ECB2E5B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5085,7 +5304,7 @@
                 <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="t"/>
+            <c:dLblPos val="l"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -5115,15 +5334,24 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>data!$O$3:$O$101</c:f>
+              <c:f>data!$O$3:$O$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="98"/>
+                <c:pt idx="38">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10000</c:v>
+                </c:pt>
                 <c:pt idx="45">
                   <c:v>11000</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>13000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5132,20 +5360,29 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>data!$N$3:$N$101</c15:f>
+                <c15:f>data!$N$3:$N$100</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="99"/>
+                  <c:ptCount val="98"/>
+                  <c:pt idx="38">
+                    <c:v>DPCM 1.3.2020 Chiusura Codogno</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>DPCM 4.3.2020 Chiusura scuole/eventi pubblici</c:v>
+                  </c:pt>
                   <c:pt idx="45">
-                    <c:v>DPCM 8.3.2020</c:v>
+                    <c:v>DPCM 8.3.2020 Zona rossa Nord Italia</c:v>
                   </c:pt>
                   <c:pt idx="46">
                     <c:v>DPCM 9.3.2020 #IORESTOACASA</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>Chiusura negozi/locali</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
             </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8AA5-4A32-98E6-ADF240057B3F}"/>
+              <c16:uniqueId val="{00000068-DDAA-459D-9CA2-E5512ECB2E5B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5754,6 +5991,9 @@
                 <c:pt idx="47">
                   <c:v>43900</c:v>
                 </c:pt>
+                <c:pt idx="48">
+                  <c:v>43901</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -5907,13 +6147,16 @@
                 <c:pt idx="47">
                   <c:v>22</c:v>
                 </c:pt>
+                <c:pt idx="48">
+                  <c:v>164</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EDFE-40F1-9F64-9BA6BDBA6C0A}"/>
+              <c16:uniqueId val="{00000000-6F6A-485B-8E48-D56E7569F83D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5943,10 +6186,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>data!$I$3:$I$50</c:f>
+              <c:f>data!$I$3:$I$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>639</c:v>
                 </c:pt>
@@ -6090,6 +6333,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>80757</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>80921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6097,7 +6343,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000068-EDFE-40F1-9F64-9BA6BDBA6C0A}"/>
+              <c16:uniqueId val="{00000001-6F6A-485B-8E48-D56E7569F83D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6276,13 +6522,16 @@
                 <c:pt idx="47">
                   <c:v>1371</c:v>
                 </c:pt>
+                <c:pt idx="48">
+                  <c:v>1538</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000069-EDFE-40F1-9F64-9BA6BDBA6C0A}"/>
+              <c16:uniqueId val="{00000002-6F6A-485B-8E48-D56E7569F83D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6460,13 +6709,16 @@
                 <c:pt idx="47">
                   <c:v>60106</c:v>
                 </c:pt>
+                <c:pt idx="48">
+                  <c:v>61644</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000006A-EDFE-40F1-9F64-9BA6BDBA6C0A}"/>
+              <c16:uniqueId val="{00000003-6F6A-485B-8E48-D56E7569F83D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6497,10 +6749,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>data!$J$3:$J$50</c:f>
+              <c:f>data!$J$3:$J$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
                 </c:pt>
@@ -6644,6 +6896,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6651,7 +6906,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000006C-EDFE-40F1-9F64-9BA6BDBA6C0A}"/>
+              <c16:uniqueId val="{00000004-6F6A-485B-8E48-D56E7569F83D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6681,10 +6936,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>data!$K$3:$K$50</c:f>
+              <c:f>data!$K$3:$K$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
                 </c:pt>
@@ -6828,6 +7083,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>3136</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3161</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6835,7 +7093,2567 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000006B-EDFE-40F1-9F64-9BA6BDBA6C0A}"/>
+              <c16:uniqueId val="{00000005-6F6A-485B-8E48-D56E7569F83D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Evento</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C31970E5-487A-4BEE-BABE-7DB58DF8AC17}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALLOCELLE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="it-IT"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{62472DCD-083F-456A-B5ED-A1D76D77D239}" type="CELLRANGE">
+                      <a:rPr lang="it-IT"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALLOCELLE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="it-IT"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C2BB26D0-F9DF-4F32-BC24-FEA6658360C5}" type="CELLRANGE">
+                      <a:rPr lang="it-IT"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALLOCELLE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="it-IT"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{849E4164-ED95-473B-89F6-B7A458E9AA71}" type="CELLRANGE">
+                      <a:rPr lang="it-IT"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALLOCELLE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="it-IT"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{811DB9FD-FB84-4D74-A065-5ACA5D810603}" type="CELLRANGE">
+                      <a:rPr lang="it-IT"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALLOCELLE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="it-IT"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000018-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000019-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="20"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{50DD8138-B202-49BA-9443-9CCB6CF3DCFF}" type="CELLRANGE">
+                      <a:rPr lang="it-IT"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALLOCELLE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="it-IT"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001A-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="21"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001B-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="22"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001C-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="23"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001D-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001E-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="25"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001F-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="26"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000020-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="27"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000021-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="28"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000022-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="29"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000023-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="30"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000024-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="31"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000025-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="32"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000026-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="33"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000027-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="34"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000028-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="35"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000029-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="36"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002A-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="37"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002B-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="38"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002C-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="39"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002D-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="40"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002E-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="41"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002F-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="42"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000030-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="43"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000031-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="44"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000032-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="45"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000033-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="46"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000034-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="47"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000035-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="48"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000036-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="49"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000037-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="50"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000038-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="51"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000039-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="52"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003A-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="53"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003B-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="54"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003C-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="55"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003D-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="56"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003E-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="57"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000003F-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="58"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000040-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="59"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000041-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="60"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000042-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="61"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000043-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="62"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000044-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="63"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000045-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="64"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000046-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="65"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000047-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="66"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000048-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="67"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000049-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="68"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000004A-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="69"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000004B-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="70"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000004C-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="71"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000004D-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="72"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000004E-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="73"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000004F-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="74"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000050-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="75"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000051-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="76"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000052-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="77"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000053-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="78"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000054-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="79"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000055-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="80"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000056-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="81"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000057-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="82"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000058-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="83"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000059-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="84"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000005A-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="85"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000005B-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="86"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000005C-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="87"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000005D-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="88"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000005E-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="89"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000005F-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="90"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000060-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="91"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000061-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="92"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000062-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="93"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000063-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="94"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000064-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="95"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000065-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="96"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000066-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="97"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000067-6F6A-485B-8E48-D56E7569F83D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$Q$3:$Q$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="98"/>
+                <c:pt idx="0">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>data!$P$3:$P$100</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="98"/>
+                  <c:pt idx="0">
+                    <c:v>Isolamento città Wuhan</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Estensione isolamento</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Limitazione ingressi Cina</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Chiusura scuole/No eventi pubblici</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Inizio stop grandi attività produttive</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Adeguamento conta casi a direttive OMS (inclusione casi asintomatici)</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000068-6F6A-485B-8E48-D56E7569F83D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8245,27 +11063,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Grafico 3">
+        <xdr:cNvPr id="2" name="Grafico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7C27577-829A-4B8D-A3FC-C27C7EC9A5F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9346906-D98B-4F8A-A2A0-DCF5F6A29FE6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8281,23 +11101,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Grafico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E736A345-5CBD-4062-BC17-7A54741FB4B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E45F351-340D-451C-9C14-19F4E6B32BBC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8321,24 +11141,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A10C3AE9-47D6-4D3B-B79D-3455C3B043FC}" name="Tabella1" displayName="Tabella1" ref="A2:O50" totalsRowShown="0" headerRowDxfId="13">
-  <autoFilter ref="A2:O50" xr:uid="{8E3163F1-C996-4F04-8EA7-BB34EF194DE5}"/>
-  <tableColumns count="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A10C3AE9-47D6-4D3B-B79D-3455C3B043FC}" name="Tabella1" displayName="Tabella1" ref="A2:Q51" totalsRowShown="0" headerRowDxfId="13">
+  <autoFilter ref="A2:Q51" xr:uid="{8E3163F1-C996-4F04-8EA7-BB34EF194DE5}"/>
+  <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{10117B41-90FB-45E9-AA8D-FE9DBFA555D8}" name="Data" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{AEA433C9-2972-441B-AF12-B0800EC060D2}" name="Nuovi contagi Italia" dataDxfId="11"/>
     <tableColumn id="8" xr3:uid="{54B193CB-6D4F-4FC3-BAB0-FB6B2C2838BA}" name="Contagi totali Italia" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{88CD5087-A404-44E2-B560-5C153506DC3C}" name="Nuove morti Italia" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{2401C1BE-B2A4-4755-A485-B35A6F1ADD3E}" name="Morti totali Italia" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{1A5C38B7-B757-4043-B8EB-248EFF7FEB56}" name="Nuovi guariti Italia" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{0154BF69-C683-4C09-977A-C9F5FA242F7A}" name="Guariti totali Italia" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{C6E3A3F4-0BFA-4D0B-8C2D-77310EAD823F}" name="Nuovi contagi China" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{59CB8007-1331-4D95-88E1-4D16F1241B82}" name="Contagi totali Cina" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{88CD5087-A404-44E2-B560-5C153506DC3C}" name="Nuove morti Italia" dataDxfId="9"/>
+    <tableColumn id="15" xr3:uid="{2401C1BE-B2A4-4755-A485-B35A6F1ADD3E}" name="Morti totali Italia" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{1A5C38B7-B757-4043-B8EB-248EFF7FEB56}" name="Nuovi guariti Italia" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{0154BF69-C683-4C09-977A-C9F5FA242F7A}" name="Guariti totali Italia" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{C6E3A3F4-0BFA-4D0B-8C2D-77310EAD823F}" name="Nuovi contagi China" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{59CB8007-1331-4D95-88E1-4D16F1241B82}" name="Contagi totali Cina" dataDxfId="4"/>
     <tableColumn id="10" xr3:uid="{B98E1D81-5EF9-4B27-9504-414B347707C3}" name="Nuove morti Cina" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{26CA99C1-8358-4AD8-A740-32FED49B407A}" name="Morti totali Cina" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{051FC29F-19BD-4BEA-818B-6EAAF96D3FD0}" name="Nuovi guariti Cina" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{4776DDAB-A49F-4F5A-9703-08F5D13DA29B}" name="Guariti totali Cina" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{D9690C8D-FAFB-4311-9B3A-05806D11AEE8}" name="Evento"/>
-    <tableColumn id="7" xr3:uid="{5185276A-493A-4856-8A3A-721CB1165664}" name="Event line"/>
+    <tableColumn id="14" xr3:uid="{26CA99C1-8358-4AD8-A740-32FED49B407A}" name="Morti totali Cina" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{051FC29F-19BD-4BEA-818B-6EAAF96D3FD0}" name="Nuovi guariti Cina" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{4776DDAB-A49F-4F5A-9703-08F5D13DA29B}" name="Guariti totali Cina" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{D9690C8D-FAFB-4311-9B3A-05806D11AEE8}" name="Evento Italia"/>
+    <tableColumn id="7" xr3:uid="{5185276A-493A-4856-8A3A-721CB1165664}" name="Event line Italia"/>
+    <tableColumn id="16" xr3:uid="{7944D1FE-0E6C-4BCE-BB7B-CB0D14C979B9}" name="Evento Cina"/>
+    <tableColumn id="17" xr3:uid="{DC13062D-11EF-4E37-882E-C83F15000D6E}" name="Event line Cina"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8641,10 +11463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE5" sqref="AE5"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8658,29 +11480,30 @@
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
     <col min="9" max="13" width="6" customWidth="1"/>
-    <col min="16" max="16" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6" customWidth="1"/>
+    <col min="14" max="14" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
+    <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="B1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
     </row>
-    <row r="2" spans="1:15" ht="99" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="99" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -8688,46 +11511,52 @@
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="N2" s="4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43853</v>
       </c>
@@ -8767,8 +11596,14 @@
       <c r="M3" s="6">
         <v>30</v>
       </c>
+      <c r="P3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3">
+        <v>30000</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43854</v>
       </c>
@@ -8808,8 +11643,14 @@
       <c r="M4" s="6">
         <v>36</v>
       </c>
+      <c r="P4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4">
+        <v>35000</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43855</v>
       </c>
@@ -8849,8 +11690,14 @@
       <c r="M5" s="6">
         <v>39</v>
       </c>
+      <c r="P5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5">
+        <v>40000</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43856</v>
       </c>
@@ -8891,7 +11738,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43857</v>
       </c>
@@ -8931,8 +11778,14 @@
       <c r="M7" s="6">
         <v>58</v>
       </c>
+      <c r="P7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7">
+        <v>45000</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43858</v>
       </c>
@@ -8973,7 +11826,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43859</v>
       </c>
@@ -9013,8 +11866,14 @@
       <c r="M9" s="6">
         <v>120</v>
       </c>
+      <c r="P9" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q9">
+        <v>50000</v>
+      </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43860</v>
       </c>
@@ -9055,7 +11914,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43861</v>
       </c>
@@ -9096,7 +11955,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43862</v>
       </c>
@@ -9137,7 +11996,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43863</v>
       </c>
@@ -9178,7 +12037,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43864</v>
       </c>
@@ -9219,7 +12078,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43865</v>
       </c>
@@ -9260,7 +12119,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43866</v>
       </c>
@@ -9301,7 +12160,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43867</v>
       </c>
@@ -9342,7 +12201,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43868</v>
       </c>
@@ -9383,7 +12242,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43869</v>
       </c>
@@ -9424,7 +12283,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43870</v>
       </c>
@@ -9465,7 +12324,7 @@
         <v>3218</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43871</v>
       </c>
@@ -9506,7 +12365,7 @@
         <v>3917</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43872</v>
       </c>
@@ -9547,7 +12406,7 @@
         <v>4635</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43873</v>
       </c>
@@ -9587,8 +12446,14 @@
       <c r="M23" s="6">
         <v>5079</v>
       </c>
+      <c r="P23" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q23">
+        <v>80000</v>
+      </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43874</v>
       </c>
@@ -9629,7 +12494,7 @@
         <v>6213</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43875</v>
       </c>
@@ -9670,7 +12535,7 @@
         <v>7973</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43876</v>
       </c>
@@ -9711,7 +12576,7 @@
         <v>9294</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43877</v>
       </c>
@@ -9752,7 +12617,7 @@
         <v>10748</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43878</v>
       </c>
@@ -9793,7 +12658,7 @@
         <v>12455</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43879</v>
       </c>
@@ -9834,7 +12699,7 @@
         <v>14199</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43880</v>
       </c>
@@ -9875,7 +12740,7 @@
         <v>15952</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43881</v>
       </c>
@@ -9916,7 +12781,7 @@
         <v>18002</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43882</v>
       </c>
@@ -10018,7 +12883,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H34" s="5">
         <v>16</v>
@@ -10059,7 +12924,7 @@
         <v>-1</v>
       </c>
       <c r="G35" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H35" s="5">
         <v>214</v>
@@ -10100,7 +12965,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36" s="5">
         <v>508</v>
@@ -10141,7 +13006,7 @@
         <v>2</v>
       </c>
       <c r="G37" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H37" s="5">
         <v>405</v>
@@ -10182,7 +13047,7 @@
         <v>42</v>
       </c>
       <c r="G38" s="6">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H38" s="5">
         <v>433</v>
@@ -10223,7 +13088,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="6">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="H39" s="5">
         <v>326</v>
@@ -10264,7 +13129,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="6">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="H40" s="5">
         <v>427</v>
@@ -10305,7 +13170,7 @@
         <v>37</v>
       </c>
       <c r="G41" s="6">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="H41" s="5">
         <v>575</v>
@@ -10324,6 +13189,12 @@
       </c>
       <c r="M41" s="6">
         <v>42118</v>
+      </c>
+      <c r="N41" t="s">
+        <v>27</v>
+      </c>
+      <c r="O41">
+        <v>9000</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -10346,7 +13217,7 @@
         <v>66</v>
       </c>
       <c r="G42" s="6">
-        <v>232</v>
+        <v>149</v>
       </c>
       <c r="H42" s="5">
         <v>200</v>
@@ -10387,7 +13258,7 @@
         <v>11</v>
       </c>
       <c r="G43" s="6">
-        <v>309</v>
+        <v>160</v>
       </c>
       <c r="H43" s="5">
         <v>125</v>
@@ -10428,7 +13299,7 @@
         <v>116</v>
       </c>
       <c r="G44" s="6">
-        <v>436</v>
+        <v>276</v>
       </c>
       <c r="H44" s="5">
         <v>120</v>
@@ -10447,6 +13318,12 @@
       </c>
       <c r="M44" s="6">
         <v>49955</v>
+      </c>
+      <c r="N44" t="s">
+        <v>28</v>
+      </c>
+      <c r="O44">
+        <v>10000</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -10469,7 +13346,7 @@
         <v>138</v>
       </c>
       <c r="G45" s="6">
-        <v>690</v>
+        <v>414</v>
       </c>
       <c r="H45" s="5">
         <v>151</v>
@@ -10510,7 +13387,7 @@
         <v>109</v>
       </c>
       <c r="G46" s="6">
-        <v>937</v>
+        <v>523</v>
       </c>
       <c r="H46" s="5">
         <v>151</v>
@@ -10551,7 +13428,7 @@
         <v>66</v>
       </c>
       <c r="G47" s="6">
-        <v>1112</v>
+        <v>589</v>
       </c>
       <c r="H47" s="5">
         <v>79</v>
@@ -10592,7 +13469,7 @@
         <v>33</v>
       </c>
       <c r="G48" s="6">
-        <v>1211</v>
+        <v>622</v>
       </c>
       <c r="H48" s="5">
         <v>47</v>
@@ -10613,7 +13490,7 @@
         <v>57320</v>
       </c>
       <c r="N48" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="O48">
         <v>11000</v>
@@ -10639,7 +13516,7 @@
         <v>102</v>
       </c>
       <c r="G49" s="6">
-        <v>1346</v>
+        <v>724</v>
       </c>
       <c r="H49" s="5">
         <v>36</v>
@@ -10660,7 +13537,7 @@
         <v>58735</v>
       </c>
       <c r="N49" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O49">
         <v>12000</v>
@@ -10686,7 +13563,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="6">
-        <v>1448</v>
+        <v>724</v>
       </c>
       <c r="H50" s="5">
         <v>22</v>
@@ -10705,6 +13582,53 @@
       </c>
       <c r="M50" s="6">
         <v>60106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>43901</v>
+      </c>
+      <c r="B51" s="5">
+        <v>2313</v>
+      </c>
+      <c r="C51" s="9">
+        <v>12462</v>
+      </c>
+      <c r="D51" s="7">
+        <v>196</v>
+      </c>
+      <c r="E51" s="7">
+        <v>827</v>
+      </c>
+      <c r="F51" s="6">
+        <v>321</v>
+      </c>
+      <c r="G51" s="6">
+        <v>1045</v>
+      </c>
+      <c r="H51" s="5">
+        <v>164</v>
+      </c>
+      <c r="I51" s="5">
+        <v>80921</v>
+      </c>
+      <c r="J51" s="7">
+        <v>25</v>
+      </c>
+      <c r="K51" s="7">
+        <v>3161</v>
+      </c>
+      <c r="L51" s="6">
+        <v>1538</v>
+      </c>
+      <c r="M51" s="6">
+        <v>61644</v>
+      </c>
+      <c r="N51" t="s">
+        <v>26</v>
+      </c>
+      <c r="O51">
+        <v>13000</v>
       </c>
     </row>
   </sheetData>
@@ -10715,9 +13639,21 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A189DBBF-4284-4037-93AD-3DB7CC505AA6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/coronavirus-trend-italia.xlsx
+++ b/coronavirus-trend-italia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giovanni.mauramati\Documents\GitHub\COVID-19-Trend-Italia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49614A8E-397F-4D3A-A05D-4AEB9FA2199C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EA557C-854F-41FA-AA32-BA2956216620}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Data</t>
   </si>
@@ -114,13 +114,19 @@
     <t>Chiusura negozi/locali</t>
   </si>
   <si>
-    <t>DPCM 1.3.2020 Chiusura Codogno</t>
-  </si>
-  <si>
     <t>DPCM 4.3.2020 Chiusura scuole/eventi pubblici</t>
   </si>
   <si>
     <t>DPCM 8.3.2020 Zona rossa Nord Italia</t>
+  </si>
+  <si>
+    <t>Chiusura Codogno</t>
+  </si>
+  <si>
+    <t>DPCM 23.2.2020 Zona rossa intorno Codogno</t>
+  </si>
+  <si>
+    <t>DPCM 1.3.2020 Estensione zona rossa</t>
   </si>
 </sst>
 </file>
@@ -1124,6 +1130,9 @@
                 <c:pt idx="48">
                   <c:v>43901</c:v>
                 </c:pt>
+                <c:pt idx="49">
+                  <c:v>43902</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1279,6 +1288,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>2313</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2651</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1467,6 +1479,9 @@
                 <c:pt idx="48">
                   <c:v>12462</c:v>
                 </c:pt>
+                <c:pt idx="49">
+                  <c:v>15113</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1663,6 +1678,9 @@
                 <c:pt idx="48">
                   <c:v>43901</c:v>
                 </c:pt>
+                <c:pt idx="49">
+                  <c:v>43902</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1818,6 +1836,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2006,6 +2027,9 @@
                 <c:pt idx="48">
                   <c:v>1045</c:v>
                 </c:pt>
+                <c:pt idx="49">
+                  <c:v>1258</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2202,6 +2226,9 @@
                 <c:pt idx="48">
                   <c:v>43901</c:v>
                 </c:pt>
+                <c:pt idx="49">
+                  <c:v>43902</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2357,6 +2384,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>189</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2544,6 +2574,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>827</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2618,7 +2651,7 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-DDAA-459D-9CA2-E5512ECB2E5B}"/>
+                  <c16:uniqueId val="{00000002-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2645,7 +2678,7 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-DDAA-459D-9CA2-E5512ECB2E5B}"/>
+                  <c16:uniqueId val="{00000003-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2672,7 +2705,7 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-DDAA-459D-9CA2-E5512ECB2E5B}"/>
+                  <c16:uniqueId val="{00000004-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2699,7 +2732,7 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-DDAA-459D-9CA2-E5512ECB2E5B}"/>
+                  <c16:uniqueId val="{00000005-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2726,7 +2759,7 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-DDAA-459D-9CA2-E5512ECB2E5B}"/>
+                  <c16:uniqueId val="{00000006-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2753,7 +2786,7 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-DDAA-459D-9CA2-E5512ECB2E5B}"/>
+                  <c16:uniqueId val="{00000007-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2780,7 +2813,7 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-DDAA-459D-9CA2-E5512ECB2E5B}"/>
+                  <c16:uniqueId val="{00000008-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2807,7 +2840,7 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-DDAA-459D-9CA2-E5512ECB2E5B}"/>
+                  <c16:uniqueId val="{00000009-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2834,7 +2867,7 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-DDAA-459D-9CA2-E5512ECB2E5B}"/>
+                  <c16:uniqueId val="{0000000A-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2861,7 +2894,7 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000F-DDAA-459D-9CA2-E5512ECB2E5B}"/>
+                  <c16:uniqueId val="{0000000B-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2888,7 +2921,7 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000010-DDAA-459D-9CA2-E5512ECB2E5B}"/>
+                  <c16:uniqueId val="{0000000C-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2915,7 +2948,7 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000011-DDAA-459D-9CA2-E5512ECB2E5B}"/>
+                  <c16:uniqueId val="{0000000D-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2942,7 +2975,7 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000012-DDAA-459D-9CA2-E5512ECB2E5B}"/>
+                  <c16:uniqueId val="{0000000E-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2969,7 +3002,7 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000013-DDAA-459D-9CA2-E5512ECB2E5B}"/>
+                  <c16:uniqueId val="{0000000F-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2996,7 +3029,7 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000014-DDAA-459D-9CA2-E5512ECB2E5B}"/>
+                  <c16:uniqueId val="{00000010-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3023,7 +3056,7 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000015-DDAA-459D-9CA2-E5512ECB2E5B}"/>
+                  <c16:uniqueId val="{00000011-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3050,7 +3083,7 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000016-DDAA-459D-9CA2-E5512ECB2E5B}"/>
+                  <c16:uniqueId val="{00000012-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3077,7 +3110,7 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000017-DDAA-459D-9CA2-E5512ECB2E5B}"/>
+                  <c16:uniqueId val="{00000013-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3104,7 +3137,7 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000018-DDAA-459D-9CA2-E5512ECB2E5B}"/>
+                  <c16:uniqueId val="{00000014-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3131,7 +3164,7 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000019-DDAA-459D-9CA2-E5512ECB2E5B}"/>
+                  <c16:uniqueId val="{00000015-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3158,7 +3191,7 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001A-DDAA-459D-9CA2-E5512ECB2E5B}"/>
+                  <c16:uniqueId val="{00000016-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3185,7 +3218,7 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001B-DDAA-459D-9CA2-E5512ECB2E5B}"/>
+                  <c16:uniqueId val="{00000017-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3212,7 +3245,7 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001C-DDAA-459D-9CA2-E5512ECB2E5B}"/>
+                  <c16:uniqueId val="{00000018-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3239,7 +3272,7 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001D-DDAA-459D-9CA2-E5512ECB2E5B}"/>
+                  <c16:uniqueId val="{00000019-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3266,7 +3299,7 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001E-DDAA-459D-9CA2-E5512ECB2E5B}"/>
+                  <c16:uniqueId val="{0000001A-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3293,7 +3326,7 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001F-DDAA-459D-9CA2-E5512ECB2E5B}"/>
+                  <c16:uniqueId val="{0000001B-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3320,7 +3353,7 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000020-DDAA-459D-9CA2-E5512ECB2E5B}"/>
+                  <c16:uniqueId val="{0000001C-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3347,7 +3380,7 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000021-DDAA-459D-9CA2-E5512ECB2E5B}"/>
+                  <c16:uniqueId val="{0000001D-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3374,7 +3407,7 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000022-DDAA-459D-9CA2-E5512ECB2E5B}"/>
+                  <c16:uniqueId val="{0000001E-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3385,250 +3418,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="l"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000023-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="30"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="l"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000024-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="31"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="l"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000025-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="32"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="l"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000026-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="33"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="l"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000027-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="34"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="l"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000028-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="35"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="l"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000029-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="36"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="l"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002A-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="37"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="l"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002B-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="38"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{15FD12A2-8291-415A-9D94-59E0D4862FAD}" type="CELLRANGE">
+                    <a:fld id="{28B45C6E-B52C-4FB2-ACA4-89B805E647EA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3651,12 +3441,12 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002C-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="39"/>
+                  <c16:uniqueId val="{0000001F-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="30"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3678,12 +3468,95 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002D-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="40"/>
+                  <c16:uniqueId val="{00000020-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="31"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="lt1">
+                            <a:lumMod val="85000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{0A75A174-47F5-4C46-AB76-0375B64036D7}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[INTERVALLOCELLE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="it-IT"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="85000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="it-IT"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.26559523809523811"/>
+                      <c:h val="3.1425925925925927E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000021-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="32"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3705,7 +3578,279 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002E-DDAA-459D-9CA2-E5512ECB2E5B}"/>
+                  <c16:uniqueId val="{00000022-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="33"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000023-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="34"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000024-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="35"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000025-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="36"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000026-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="37"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000027-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="38"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="lt1">
+                            <a:lumMod val="85000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{DEEA4D30-8520-4CC6-A4D9-C16E38BA7DBE}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[INTERVALLOCELLE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="it-IT"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="85000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="it-IT"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.22128714379452569"/>
+                      <c:h val="3.1425925925925927E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="39"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000028-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="40"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000029-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3713,10 +3858,257 @@
               <c:idx val="41"/>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{35CA4D4F-9330-42FD-9288-D51B9C65C465}" type="CELLRANGE">
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="lt1">
+                            <a:lumMod val="85000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{8118761C-9AEF-41B7-9964-189793647D54}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[INTERVALLOCELLE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="it-IT"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="85000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="it-IT"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.27779023715785522"/>
+                      <c:h val="3.1425925925925927E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002A-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="42"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002B-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="43"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002C-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="44"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002D-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="45"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="lt1">
+                            <a:lumMod val="85000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{E88E822D-5789-4562-846D-CCFD3C087F1C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[INTERVALLOCELLE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="it-IT"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="85000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="it-IT"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.22229166666666669"/>
+                      <c:h val="2.9574074074074069E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002E-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="46"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1AA1EF03-7ACC-4F7A-9F3B-A2ED87611ECB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3739,12 +4131,12 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002F-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="42"/>
+                  <c16:uniqueId val="{0000002F-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="47"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3766,72 +4158,18 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000030-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="43"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="l"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000031-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="44"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="l"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000032-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="45"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{0F4BB645-776E-4A97-BA12-C8A69A0C6160}" type="CELLRANGE">
+                  <c16:uniqueId val="{00000030-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="48"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{BD42EF3E-F36C-457B-B26F-D5994FC02550}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3854,46 +4192,12 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000033-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="46"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{B3C5A0A6-4790-4D66-ADF6-2B4C2E29B3D0}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[INTERVALLOCELLE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="it-IT"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="l"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000034-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="47"/>
+                  <c16:uniqueId val="{00000031-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="49"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3915,46 +4219,12 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000035-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="48"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{98FBEB14-305E-49E2-83FB-B83856ACF033}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[INTERVALLOCELLE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="it-IT"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="l"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000036-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="49"/>
+                  <c16:uniqueId val="{00000032-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="50"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3976,12 +4246,12 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000037-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="50"/>
+                  <c16:uniqueId val="{00000033-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="51"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4003,12 +4273,12 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000038-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="51"/>
+                  <c16:uniqueId val="{00000034-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="52"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4030,12 +4300,12 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000039-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="52"/>
+                  <c16:uniqueId val="{00000035-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="53"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4057,12 +4327,12 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003A-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="53"/>
+                  <c16:uniqueId val="{00000036-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="54"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4084,12 +4354,12 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003B-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="54"/>
+                  <c16:uniqueId val="{00000037-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="55"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4111,12 +4381,12 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003C-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="55"/>
+                  <c16:uniqueId val="{00000038-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="56"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4138,12 +4408,12 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003D-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="56"/>
+                  <c16:uniqueId val="{00000039-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="57"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4165,12 +4435,12 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003E-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="57"/>
+                  <c16:uniqueId val="{0000003A-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="58"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4192,12 +4462,12 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000003F-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="58"/>
+                  <c16:uniqueId val="{0000003B-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="59"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4219,12 +4489,12 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000040-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="59"/>
+                  <c16:uniqueId val="{0000003C-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="60"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4246,12 +4516,12 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000041-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="60"/>
+                  <c16:uniqueId val="{0000003D-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="61"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4273,12 +4543,12 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000042-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="61"/>
+                  <c16:uniqueId val="{0000003E-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="62"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4300,12 +4570,12 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000043-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="62"/>
+                  <c16:uniqueId val="{0000003F-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="63"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4327,12 +4597,12 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000044-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="63"/>
+                  <c16:uniqueId val="{00000040-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="64"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4354,12 +4624,12 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000045-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="64"/>
+                  <c16:uniqueId val="{00000041-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="65"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4381,12 +4651,12 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000046-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="65"/>
+                  <c16:uniqueId val="{00000042-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="66"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4408,12 +4678,12 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000047-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="66"/>
+                  <c16:uniqueId val="{00000043-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="67"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4435,12 +4705,12 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000048-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="67"/>
+                  <c16:uniqueId val="{00000044-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="68"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4462,12 +4732,12 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000049-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="68"/>
+                  <c16:uniqueId val="{00000045-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="69"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4489,12 +4759,12 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000004A-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="69"/>
+                  <c16:uniqueId val="{00000046-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="70"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4516,12 +4786,12 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000004B-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="70"/>
+                  <c16:uniqueId val="{00000047-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="71"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4543,12 +4813,12 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000004C-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="71"/>
+                  <c16:uniqueId val="{00000048-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="72"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4570,12 +4840,12 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000004D-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="72"/>
+                  <c16:uniqueId val="{00000049-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="73"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4597,12 +4867,12 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000004E-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="73"/>
+                  <c16:uniqueId val="{0000004A-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="74"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4624,12 +4894,12 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000004F-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="74"/>
+                  <c16:uniqueId val="{0000004B-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="75"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4651,12 +4921,12 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000050-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="75"/>
+                  <c16:uniqueId val="{0000004C-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="76"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4678,12 +4948,12 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000051-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="76"/>
+                  <c16:uniqueId val="{0000004D-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="77"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4705,12 +4975,12 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000052-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="77"/>
+                  <c16:uniqueId val="{0000004E-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="78"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4732,12 +5002,12 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000053-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="78"/>
+                  <c16:uniqueId val="{0000004F-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="79"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4759,12 +5029,12 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000054-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="79"/>
+                  <c16:uniqueId val="{00000050-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="80"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4786,12 +5056,12 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000055-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="80"/>
+                  <c16:uniqueId val="{00000051-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="81"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4813,12 +5083,12 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000056-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="81"/>
+                  <c16:uniqueId val="{00000052-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="82"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4840,12 +5110,12 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000057-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="82"/>
+                  <c16:uniqueId val="{00000053-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="83"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4867,12 +5137,12 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000058-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="83"/>
+                  <c16:uniqueId val="{00000054-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="84"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4894,12 +5164,12 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000059-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="84"/>
+                  <c16:uniqueId val="{00000055-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="85"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4921,12 +5191,12 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000005A-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="85"/>
+                  <c16:uniqueId val="{00000056-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="86"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4948,12 +5218,12 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000005B-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="86"/>
+                  <c16:uniqueId val="{00000057-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="87"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4975,12 +5245,12 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000005C-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="87"/>
+                  <c16:uniqueId val="{00000058-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="88"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5002,12 +5272,12 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000005D-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="88"/>
+                  <c16:uniqueId val="{00000059-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="89"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5029,12 +5299,12 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000005E-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="89"/>
+                  <c16:uniqueId val="{0000005A-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="90"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5056,12 +5326,12 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000005F-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="90"/>
+                  <c16:uniqueId val="{0000005B-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="91"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5083,12 +5353,12 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000060-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="91"/>
+                  <c16:uniqueId val="{0000005C-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="92"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5110,12 +5380,12 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000061-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="92"/>
+                  <c16:uniqueId val="{0000005D-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="93"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5137,12 +5407,12 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000062-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="93"/>
+                  <c16:uniqueId val="{0000005E-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="94"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5164,12 +5434,12 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000063-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="94"/>
+                  <c16:uniqueId val="{0000005F-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="95"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5191,12 +5461,12 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000064-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="95"/>
+                  <c16:uniqueId val="{00000060-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="96"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5218,12 +5488,12 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000065-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="96"/>
+                  <c16:uniqueId val="{00000061-2D82-4546-9A4F-791FA2C39778}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="97"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5245,34 +5515,7 @@
                   <c15:xForSave val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000066-DDAA-459D-9CA2-E5512ECB2E5B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="97"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="l"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000067-DDAA-459D-9CA2-E5512ECB2E5B}"/>
+                  <c16:uniqueId val="{00000062-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5338,20 +5581,26 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="98"/>
+                <c:pt idx="29">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1200</c:v>
+                </c:pt>
                 <c:pt idx="38">
-                  <c:v>9000</c:v>
+                  <c:v>1694</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>10000</c:v>
+                  <c:v>3089</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>11000</c:v>
+                  <c:v>7375</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>12000</c:v>
+                  <c:v>9172</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>13000</c:v>
+                  <c:v>12462</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5363,8 +5612,14 @@
                 <c15:f>data!$N$3:$N$100</c15:f>
                 <c15:dlblRangeCache>
                   <c:ptCount val="98"/>
+                  <c:pt idx="29">
+                    <c:v>Chiusura Codogno</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>DPCM 23.2.2020 Zona rossa intorno Codogno</c:v>
+                  </c:pt>
                   <c:pt idx="38">
-                    <c:v>DPCM 1.3.2020 Chiusura Codogno</c:v>
+                    <c:v>DPCM 1.3.2020 Estensione zona rossa</c:v>
                   </c:pt>
                   <c:pt idx="41">
                     <c:v>DPCM 4.3.2020 Chiusura scuole/eventi pubblici</c:v>
@@ -5382,7 +5637,7 @@
               </c15:datalabelsRange>
             </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000068-DDAA-459D-9CA2-E5512ECB2E5B}"/>
+              <c16:uniqueId val="{00000000-2D82-4546-9A4F-791FA2C39778}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5994,6 +6249,9 @@
                 <c:pt idx="48">
                   <c:v>43901</c:v>
                 </c:pt>
+                <c:pt idx="49">
+                  <c:v>43902</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -6149,6 +6407,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6336,6 +6597,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>80921</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>80932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6525,6 +6789,9 @@
                 <c:pt idx="48">
                   <c:v>1538</c:v>
                 </c:pt>
+                <c:pt idx="49">
+                  <c:v>1257</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6711,6 +6978,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>61644</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>62901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6900,6 +7170,9 @@
                 <c:pt idx="48">
                   <c:v>25</c:v>
                 </c:pt>
+                <c:pt idx="49">
+                  <c:v>11</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7086,6 +7359,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>3161</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7144,7 +7420,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C31970E5-487A-4BEE-BABE-7DB58DF8AC17}" type="CELLRANGE">
+                    <a:fld id="{156FE493-1EC9-4D15-9C75-ACA3EE94EFAC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -7176,7 +7452,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{62472DCD-083F-456A-B5ED-A1D76D77D239}" type="CELLRANGE">
+                    <a:fld id="{74367FD3-E99E-45B8-B7D6-89AAA5F55B16}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -7209,7 +7485,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C2BB26D0-F9DF-4F32-BC24-FEA6658360C5}" type="CELLRANGE">
+                    <a:fld id="{7335E73D-BE5E-4C46-8F78-8B4B54F3F368}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -7266,7 +7542,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{849E4164-ED95-473B-89F6-B7A458E9AA71}" type="CELLRANGE">
+                    <a:fld id="{3CC386B6-1455-48C6-A98A-71536568E436}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -7323,8 +7599,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{811DB9FD-FB84-4D74-A065-5ACA5D810603}" type="CELLRANGE">
-                      <a:rPr lang="it-IT"/>
+                    <a:fld id="{F9829AE0-68E9-4968-9439-F8BCEFD3306D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
                     </a:fld>
@@ -7340,8 +7616,13 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.1541890466816648"/>
+                      <c:h val="4.6240740740740742E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -7668,7 +7949,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{50DD8138-B202-49BA-9443-9CCB6CF3DCFF}" type="CELLRANGE">
+                    <a:fld id="{FC84AD2B-F009-4215-9DA8-9DCB4B27A255}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -11141,8 +11422,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A10C3AE9-47D6-4D3B-B79D-3455C3B043FC}" name="Tabella1" displayName="Tabella1" ref="A2:Q51" totalsRowShown="0" headerRowDxfId="13">
-  <autoFilter ref="A2:Q51" xr:uid="{8E3163F1-C996-4F04-8EA7-BB34EF194DE5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A10C3AE9-47D6-4D3B-B79D-3455C3B043FC}" name="Tabella1" displayName="Tabella1" ref="A2:Q52" totalsRowShown="0" headerRowDxfId="13">
+  <autoFilter ref="A2:Q52" xr:uid="{8E3163F1-C996-4F04-8EA7-BB34EF194DE5}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{10117B41-90FB-45E9-AA8D-FE9DBFA555D8}" name="Data" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{AEA433C9-2972-441B-AF12-B0800EC060D2}" name="Nuovi contagi Italia" dataDxfId="11"/>
@@ -11463,10 +11744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11475,12 +11756,12 @@
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
     <col min="9" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="43.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="6" customWidth="1"/>
   </cols>
@@ -12821,6 +13102,12 @@
       <c r="M32" s="6">
         <v>18693</v>
       </c>
+      <c r="N32" t="s">
+        <v>29</v>
+      </c>
+      <c r="O32">
+        <v>700</v>
+      </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -12903,6 +13190,12 @@
       <c r="M34" s="6">
         <v>23170</v>
       </c>
+      <c r="N34" t="s">
+        <v>30</v>
+      </c>
+      <c r="O34">
+        <v>1200</v>
+      </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
@@ -13191,10 +13484,10 @@
         <v>42118</v>
       </c>
       <c r="N41" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="O41">
-        <v>9000</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -13320,10 +13613,10 @@
         <v>49955</v>
       </c>
       <c r="N44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O44">
-        <v>10000</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -13490,10 +13783,10 @@
         <v>57320</v>
       </c>
       <c r="N48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O48">
-        <v>11000</v>
+        <v>7375</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -13540,7 +13833,7 @@
         <v>5</v>
       </c>
       <c r="O49">
-        <v>12000</v>
+        <v>9172</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
@@ -13628,7 +13921,48 @@
         <v>26</v>
       </c>
       <c r="O51">
-        <v>13000</v>
+        <v>12462</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>43902</v>
+      </c>
+      <c r="B52" s="5">
+        <v>2651</v>
+      </c>
+      <c r="C52" s="9">
+        <v>15113</v>
+      </c>
+      <c r="D52" s="7">
+        <v>189</v>
+      </c>
+      <c r="E52" s="7">
+        <v>1016</v>
+      </c>
+      <c r="F52" s="6">
+        <v>213</v>
+      </c>
+      <c r="G52" s="6">
+        <v>1258</v>
+      </c>
+      <c r="H52" s="5">
+        <v>11</v>
+      </c>
+      <c r="I52" s="5">
+        <v>80932</v>
+      </c>
+      <c r="J52" s="7">
+        <v>11</v>
+      </c>
+      <c r="K52" s="7">
+        <v>3172</v>
+      </c>
+      <c r="L52" s="6">
+        <v>1257</v>
+      </c>
+      <c r="M52" s="6">
+        <v>62901</v>
       </c>
     </row>
   </sheetData>

--- a/coronavirus-trend-italia.xlsx
+++ b/coronavirus-trend-italia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giovanni.mauramati\Documents\GitHub\COVID-19-Trend-Italia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EA557C-854F-41FA-AA32-BA2956216620}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA84E77-349D-4252-8B96-8753D176FFB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1133,6 +1133,15 @@
                 <c:pt idx="49">
                   <c:v>43902</c:v>
                 </c:pt>
+                <c:pt idx="50">
+                  <c:v>43903</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43904</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43905</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1291,6 +1300,15 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>2651</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2547</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3497</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3590</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1328,10 +1346,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>data!$C$3:$C$52</c:f>
+              <c:f>data!$C$3:$C$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1481,6 +1499,15 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>15113</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>17660</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>21157</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>24747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1681,6 +1708,15 @@
                 <c:pt idx="49">
                   <c:v>43902</c:v>
                 </c:pt>
+                <c:pt idx="50">
+                  <c:v>43903</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43904</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43905</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1839,6 +1875,15 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>527</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>369</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2030,6 +2075,15 @@
                 <c:pt idx="49">
                   <c:v>1258</c:v>
                 </c:pt>
+                <c:pt idx="50">
+                  <c:v>1439</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1966</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2335</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2229,6 +2283,15 @@
                 <c:pt idx="49">
                   <c:v>43902</c:v>
                 </c:pt>
+                <c:pt idx="50">
+                  <c:v>43903</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43904</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43905</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2387,6 +2450,15 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>368</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2577,6 +2649,15 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>1016</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1266</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1441</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1809</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2647,9 +2728,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -2674,9 +2753,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -2701,9 +2778,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -2728,9 +2803,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -2755,9 +2828,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -2782,9 +2853,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -2809,9 +2878,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -2836,9 +2903,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -2863,9 +2928,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -2890,9 +2953,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -2917,9 +2978,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -2944,9 +3003,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000D-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -2971,9 +3028,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000E-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -2998,9 +3053,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000F-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -3025,9 +3078,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000010-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -3052,9 +3103,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000011-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -3079,9 +3128,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000012-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -3106,9 +3153,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000013-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -3133,9 +3178,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000014-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -3160,9 +3203,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000015-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -3187,9 +3228,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -3214,9 +3253,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000017-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -3241,9 +3278,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000018-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -3268,9 +3303,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000019-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -3295,9 +3328,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001A-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -3322,9 +3353,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001B-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -3349,9 +3378,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001C-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -3376,9 +3403,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001D-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -3403,9 +3428,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001E-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -3418,7 +3441,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{28B45C6E-B52C-4FB2-ACA4-89B805E647EA}" type="CELLRANGE">
+                    <a:fld id="{D77073A9-88D8-47B8-9D18-E53B5CC4F045}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3437,7 +3460,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -3464,9 +3486,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000020-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -3493,7 +3513,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{0A75A174-47F5-4C46-AB76-0375B64036D7}" type="CELLRANGE">
+                    <a:fld id="{5E933156-9842-4B88-9ADE-50A50E183CAD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr/>
@@ -3574,9 +3594,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000022-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -3601,9 +3619,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000023-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -3628,9 +3644,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000024-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -3655,9 +3669,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000025-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -3682,9 +3694,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000026-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -3709,9 +3719,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000027-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -3738,7 +3746,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{DEEA4D30-8520-4CC6-A4D9-C16E38BA7DBE}" type="CELLRANGE">
+                    <a:fld id="{F87A49EE-B199-4590-B021-227E9360139E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr/>
@@ -3819,9 +3827,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000028-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -3846,9 +3852,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000029-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -3875,7 +3879,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{8118761C-9AEF-41B7-9964-189793647D54}" type="CELLRANGE">
+                    <a:fld id="{AA963D7D-A35B-47C3-83A2-0B2052FE2018}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr/>
@@ -3956,9 +3960,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000002B-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -3983,9 +3985,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000002C-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -4010,9 +4010,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000002D-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -4039,7 +4037,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{E88E822D-5789-4562-846D-CCFD3C087F1C}" type="CELLRANGE">
+                    <a:fld id="{4DE9CBF0-F075-4DE5-9072-29379EAC7114}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr/>
@@ -4108,8 +4106,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1AA1EF03-7ACC-4F7A-9F3B-A2ED87611ECB}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{670C7072-B361-4CAF-A942-FC4FC50CAD4D}" type="CELLRANGE">
+                      <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
                     </a:fld>
@@ -4154,9 +4152,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000030-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -4169,8 +4165,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BD42EF3E-F36C-457B-B26F-D5994FC02550}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{DE712ABA-CBF8-475C-922A-FCC029DECFEF}" type="CELLRANGE">
+                      <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
                     </a:fld>
@@ -4215,9 +4211,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000032-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -4242,9 +4236,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000033-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -4269,9 +4261,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000034-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -4296,9 +4286,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000035-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -4323,9 +4311,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000036-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -4350,9 +4336,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000037-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -4377,9 +4361,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000038-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -4404,9 +4386,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000039-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -4431,9 +4411,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000003A-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -4458,9 +4436,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000003B-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -4485,9 +4461,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000003C-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -4512,9 +4486,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000003D-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -4539,9 +4511,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000003E-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -4566,9 +4536,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000003F-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -4593,9 +4561,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000040-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -4620,9 +4586,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000041-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -4647,9 +4611,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000042-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -4674,9 +4636,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000043-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -4701,9 +4661,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000044-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -4728,9 +4686,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000045-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -4755,9 +4711,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000046-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -4782,9 +4736,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000047-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -4809,9 +4761,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000048-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -4836,9 +4786,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000049-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -4863,9 +4811,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000004A-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -4890,9 +4836,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000004B-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -4917,9 +4861,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000004C-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -4944,9 +4886,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000004D-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -4971,9 +4911,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000004E-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -4998,9 +4936,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000004F-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -5025,9 +4961,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000050-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -5052,9 +4986,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000051-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -5079,9 +5011,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000052-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -5106,9 +5036,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000053-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -5133,9 +5061,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000054-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -5160,9 +5086,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000055-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -5187,9 +5111,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000056-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -5214,9 +5136,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000057-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -5241,9 +5161,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000058-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -5268,9 +5186,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000059-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -5295,9 +5211,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000005A-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -5322,9 +5236,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000005B-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -5349,9 +5261,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000005C-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -5376,9 +5286,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000005D-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -5403,9 +5311,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000005E-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -5430,9 +5336,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000005F-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -5457,9 +5361,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000060-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -5484,9 +5386,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000061-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -5511,9 +5411,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000062-2D82-4546-9A4F-791FA2C39778}"/>
                 </c:ext>
@@ -6252,6 +6150,15 @@
                 <c:pt idx="49">
                   <c:v>43902</c:v>
                 </c:pt>
+                <c:pt idx="50">
+                  <c:v>43903</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43904</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43905</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -6410,6 +6317,15 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6447,10 +6363,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>data!$I$3:$I$52</c:f>
+              <c:f>data!$I$3:$I$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>639</c:v>
                 </c:pt>
@@ -6600,6 +6516,15 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>80932</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>80945</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>80977</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>81003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6792,6 +6717,15 @@
                 <c:pt idx="49">
                   <c:v>1257</c:v>
                 </c:pt>
+                <c:pt idx="50">
+                  <c:v>1295</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1464</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1357</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6982,6 +6916,15 @@
                 <c:pt idx="49">
                   <c:v>62901</c:v>
                 </c:pt>
+                <c:pt idx="50">
+                  <c:v>64196</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>65660</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>67017</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7019,10 +6962,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>data!$J$3:$J$52</c:f>
+              <c:f>data!$J$3:$J$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
                 </c:pt>
@@ -7172,6 +7115,15 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7209,10 +7161,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>data!$K$3:$K$52</c:f>
+              <c:f>data!$K$3:$K$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
                 </c:pt>
@@ -7362,6 +7314,15 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>3172</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3180</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3193</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7420,7 +7381,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{156FE493-1EC9-4D15-9C75-ACA3EE94EFAC}" type="CELLRANGE">
+                    <a:fld id="{AB194F6D-C08E-4FD0-9654-DCADE78FDC31}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -7452,7 +7413,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{74367FD3-E99E-45B8-B7D6-89AAA5F55B16}" type="CELLRANGE">
+                    <a:fld id="{52D16236-7D47-4EBA-AD7D-CA943327FEDE}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -7485,7 +7446,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7335E73D-BE5E-4C46-8F78-8B4B54F3F368}" type="CELLRANGE">
+                    <a:fld id="{C4662B40-BEB8-44C7-A718-10A71F9F3369}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -7542,7 +7503,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3CC386B6-1455-48C6-A98A-71536568E436}" type="CELLRANGE">
+                    <a:fld id="{B13AA372-DD7A-4E4E-8BF9-3E1CCC769694}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -7599,7 +7560,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F9829AE0-68E9-4968-9439-F8BCEFD3306D}" type="CELLRANGE">
+                    <a:fld id="{9807ADD0-67AB-4B36-BE71-2D4AE17D7612}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -7949,7 +7910,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FC84AD2B-F009-4215-9DA8-9DCB4B27A255}" type="CELLRANGE">
+                    <a:fld id="{BEB3B252-5E2A-4BC7-9B33-1F7C59C28E54}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -11422,8 +11383,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A10C3AE9-47D6-4D3B-B79D-3455C3B043FC}" name="Tabella1" displayName="Tabella1" ref="A2:Q52" totalsRowShown="0" headerRowDxfId="13">
-  <autoFilter ref="A2:Q52" xr:uid="{8E3163F1-C996-4F04-8EA7-BB34EF194DE5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A10C3AE9-47D6-4D3B-B79D-3455C3B043FC}" name="Tabella1" displayName="Tabella1" ref="A2:Q55" totalsRowShown="0" headerRowDxfId="13">
+  <autoFilter ref="A2:Q55" xr:uid="{8E3163F1-C996-4F04-8EA7-BB34EF194DE5}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{10117B41-90FB-45E9-AA8D-FE9DBFA555D8}" name="Data" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{AEA433C9-2972-441B-AF12-B0800EC060D2}" name="Nuovi contagi Italia" dataDxfId="11"/>
@@ -11744,10 +11705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="N52" sqref="N52"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13963,6 +13924,129 @@
       </c>
       <c r="M52" s="6">
         <v>62901</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>43903</v>
+      </c>
+      <c r="B53" s="5">
+        <v>2547</v>
+      </c>
+      <c r="C53" s="9">
+        <v>17660</v>
+      </c>
+      <c r="D53" s="7">
+        <v>250</v>
+      </c>
+      <c r="E53" s="7">
+        <v>1266</v>
+      </c>
+      <c r="F53" s="6">
+        <v>181</v>
+      </c>
+      <c r="G53" s="6">
+        <v>1439</v>
+      </c>
+      <c r="H53" s="5">
+        <v>13</v>
+      </c>
+      <c r="I53" s="5">
+        <v>80945</v>
+      </c>
+      <c r="J53" s="7">
+        <v>8</v>
+      </c>
+      <c r="K53" s="7">
+        <v>3180</v>
+      </c>
+      <c r="L53" s="6">
+        <v>1295</v>
+      </c>
+      <c r="M53" s="6">
+        <v>64196</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>43904</v>
+      </c>
+      <c r="B54" s="5">
+        <v>3497</v>
+      </c>
+      <c r="C54" s="9">
+        <v>21157</v>
+      </c>
+      <c r="D54" s="7">
+        <v>175</v>
+      </c>
+      <c r="E54" s="7">
+        <v>1441</v>
+      </c>
+      <c r="F54" s="6">
+        <v>527</v>
+      </c>
+      <c r="G54" s="6">
+        <v>1966</v>
+      </c>
+      <c r="H54" s="5">
+        <v>32</v>
+      </c>
+      <c r="I54" s="5">
+        <v>80977</v>
+      </c>
+      <c r="J54" s="7">
+        <v>13</v>
+      </c>
+      <c r="K54" s="7">
+        <v>3193</v>
+      </c>
+      <c r="L54" s="6">
+        <v>1464</v>
+      </c>
+      <c r="M54" s="6">
+        <v>65660</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>43905</v>
+      </c>
+      <c r="B55" s="5">
+        <v>3590</v>
+      </c>
+      <c r="C55" s="9">
+        <v>24747</v>
+      </c>
+      <c r="D55" s="7">
+        <v>368</v>
+      </c>
+      <c r="E55" s="7">
+        <v>1809</v>
+      </c>
+      <c r="F55" s="6">
+        <v>369</v>
+      </c>
+      <c r="G55" s="6">
+        <v>2335</v>
+      </c>
+      <c r="H55" s="5">
+        <v>26</v>
+      </c>
+      <c r="I55" s="5">
+        <v>81003</v>
+      </c>
+      <c r="J55" s="7">
+        <v>10</v>
+      </c>
+      <c r="K55" s="7">
+        <v>3203</v>
+      </c>
+      <c r="L55" s="6">
+        <v>1357</v>
+      </c>
+      <c r="M55" s="6">
+        <v>67017</v>
       </c>
     </row>
   </sheetData>

--- a/coronavirus-trend-italia.xlsx
+++ b/coronavirus-trend-italia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giovanni.mauramati\Documents\GitHub\COVID-19-Trend-Italia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA84E77-349D-4252-8B96-8753D176FFB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FA30FE-7CC2-431B-98A6-7715300C3065}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1142,6 +1142,9 @@
                 <c:pt idx="52">
                   <c:v>43905</c:v>
                 </c:pt>
+                <c:pt idx="53">
+                  <c:v>43906</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1309,6 +1312,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>3590</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3233</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1346,10 +1352,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>data!$C$3:$C$55</c:f>
+              <c:f>data!$C$3:$C$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1508,6 +1514,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>24747</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>27980</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1717,6 +1726,9 @@
                 <c:pt idx="52">
                   <c:v>43905</c:v>
                 </c:pt>
+                <c:pt idx="53">
+                  <c:v>43906</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1884,6 +1896,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2084,6 +2099,9 @@
                 <c:pt idx="52">
                   <c:v>2335</c:v>
                 </c:pt>
+                <c:pt idx="53">
+                  <c:v>2749</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2292,6 +2310,9 @@
                 <c:pt idx="52">
                   <c:v>43905</c:v>
                 </c:pt>
+                <c:pt idx="53">
+                  <c:v>43906</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2459,6 +2480,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2658,6 +2682,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>1809</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2158</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3441,7 +3468,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D77073A9-88D8-47B8-9D18-E53B5CC4F045}" type="CELLRANGE">
+                    <a:fld id="{E5033616-1311-40B0-933D-42BA4EED2763}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3513,7 +3540,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{5E933156-9842-4B88-9ADE-50A50E183CAD}" type="CELLRANGE">
+                    <a:fld id="{029BF7D3-EEB4-484A-8898-29EC8FD58B06}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr/>
@@ -3746,7 +3773,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{F87A49EE-B199-4590-B021-227E9360139E}" type="CELLRANGE">
+                    <a:fld id="{9D6D1648-7B57-4ED7-901D-262ACB2966FF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr/>
@@ -3879,7 +3906,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{AA963D7D-A35B-47C3-83A2-0B2052FE2018}" type="CELLRANGE">
+                    <a:fld id="{F9E0B51B-AA16-4F15-A145-DA9404E077AC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr/>
@@ -4037,7 +4064,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{4DE9CBF0-F075-4DE5-9072-29379EAC7114}" type="CELLRANGE">
+                    <a:fld id="{8DF12E0D-177F-4A80-918A-32910A783F60}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr/>
@@ -4106,7 +4133,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{670C7072-B361-4CAF-A942-FC4FC50CAD4D}" type="CELLRANGE">
+                    <a:fld id="{F8D14DD5-E232-48B8-AE8F-B9C308C1D61B}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -4165,7 +4192,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DE712ABA-CBF8-475C-922A-FCC029DECFEF}" type="CELLRANGE">
+                    <a:fld id="{84B3F923-3F85-40E8-BB38-5F99CC9B07EE}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -6159,6 +6186,9 @@
                 <c:pt idx="52">
                   <c:v>43905</c:v>
                 </c:pt>
+                <c:pt idx="53">
+                  <c:v>43906</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -6326,6 +6356,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6363,10 +6396,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>data!$I$3:$I$55</c:f>
+              <c:f>data!$I$3:$I$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>639</c:v>
                 </c:pt>
@@ -6525,6 +6558,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>81003</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>81033</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6726,6 +6762,9 @@
                 <c:pt idx="52">
                   <c:v>1357</c:v>
                 </c:pt>
+                <c:pt idx="53">
+                  <c:v>893</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6925,6 +6964,9 @@
                 <c:pt idx="52">
                   <c:v>67017</c:v>
                 </c:pt>
+                <c:pt idx="53">
+                  <c:v>67910</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6962,10 +7004,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>data!$J$3:$J$55</c:f>
+              <c:f>data!$J$3:$J$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
                 </c:pt>
@@ -7124,6 +7166,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7161,10 +7206,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>data!$K$3:$K$55</c:f>
+              <c:f>data!$K$3:$K$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
                 </c:pt>
@@ -7323,6 +7368,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>3203</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7381,7 +7429,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AB194F6D-C08E-4FD0-9654-DCADE78FDC31}" type="CELLRANGE">
+                    <a:fld id="{959ADB40-E315-499D-AEAE-96DEE38B321C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -7413,7 +7461,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{52D16236-7D47-4EBA-AD7D-CA943327FEDE}" type="CELLRANGE">
+                    <a:fld id="{7BD323C0-72FF-424F-AA28-71E0C9B44188}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -7446,7 +7494,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C4662B40-BEB8-44C7-A718-10A71F9F3369}" type="CELLRANGE">
+                    <a:fld id="{F88179DE-80ED-4AD8-87ED-F757A7BCABF2}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -7503,7 +7551,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B13AA372-DD7A-4E4E-8BF9-3E1CCC769694}" type="CELLRANGE">
+                    <a:fld id="{6D0995DA-6E8C-4159-B13F-F58878E09E5D}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -7560,7 +7608,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9807ADD0-67AB-4B36-BE71-2D4AE17D7612}" type="CELLRANGE">
+                    <a:fld id="{6BBAF379-1133-474D-B578-722E8FEE65AC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -7910,7 +7958,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BEB3B252-5E2A-4BC7-9B33-1F7C59C28E54}" type="CELLRANGE">
+                    <a:fld id="{39159E52-9E81-4BC5-A056-42A8CA4048B2}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -11383,8 +11431,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A10C3AE9-47D6-4D3B-B79D-3455C3B043FC}" name="Tabella1" displayName="Tabella1" ref="A2:Q55" totalsRowShown="0" headerRowDxfId="13">
-  <autoFilter ref="A2:Q55" xr:uid="{8E3163F1-C996-4F04-8EA7-BB34EF194DE5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A10C3AE9-47D6-4D3B-B79D-3455C3B043FC}" name="Tabella1" displayName="Tabella1" ref="A2:Q56" totalsRowShown="0" headerRowDxfId="13">
+  <autoFilter ref="A2:Q56" xr:uid="{8E3163F1-C996-4F04-8EA7-BB34EF194DE5}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{10117B41-90FB-45E9-AA8D-FE9DBFA555D8}" name="Data" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{AEA433C9-2972-441B-AF12-B0800EC060D2}" name="Nuovi contagi Italia" dataDxfId="11"/>
@@ -11705,10 +11753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="L56" sqref="L56"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14047,6 +14095,47 @@
       </c>
       <c r="M55" s="6">
         <v>67017</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>43906</v>
+      </c>
+      <c r="B56" s="5">
+        <v>3233</v>
+      </c>
+      <c r="C56" s="9">
+        <v>27980</v>
+      </c>
+      <c r="D56" s="7">
+        <v>349</v>
+      </c>
+      <c r="E56" s="7">
+        <v>2158</v>
+      </c>
+      <c r="F56" s="6">
+        <v>414</v>
+      </c>
+      <c r="G56" s="6">
+        <v>2749</v>
+      </c>
+      <c r="H56" s="5">
+        <v>30</v>
+      </c>
+      <c r="I56" s="5">
+        <v>81033</v>
+      </c>
+      <c r="J56" s="7">
+        <v>14</v>
+      </c>
+      <c r="K56" s="7">
+        <v>3217</v>
+      </c>
+      <c r="L56" s="6">
+        <v>893</v>
+      </c>
+      <c r="M56" s="6">
+        <v>67910</v>
       </c>
     </row>
   </sheetData>

--- a/coronavirus-trend-italia.xlsx
+++ b/coronavirus-trend-italia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giovanni.mauramati\Documents\GitHub\COVID-19-Trend-Italia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FA30FE-7CC2-431B-98A6-7715300C3065}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57893B76-C07B-482A-A3D2-C57DFE942C65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Data</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>DPCM 1.3.2020 Estensione zona rossa</t>
+  </si>
+  <si>
+    <t>17/03/2020</t>
   </si>
 </sst>
 </file>
@@ -978,175 +981,177 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>data!$A$3:$A$101</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="99"/>
+              <c:strCache>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
-                  <c:v>43853</c:v>
+                  <c:v>23/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43854</c:v>
+                  <c:v>24/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43855</c:v>
+                  <c:v>25/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43856</c:v>
+                  <c:v>26/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43857</c:v>
+                  <c:v>27/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43858</c:v>
+                  <c:v>28/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43859</c:v>
+                  <c:v>29/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43860</c:v>
+                  <c:v>30/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43861</c:v>
+                  <c:v>31/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43862</c:v>
+                  <c:v>01/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43863</c:v>
+                  <c:v>02/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43864</c:v>
+                  <c:v>03/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43865</c:v>
+                  <c:v>04/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43866</c:v>
+                  <c:v>05/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43867</c:v>
+                  <c:v>06/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43868</c:v>
+                  <c:v>07/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43869</c:v>
+                  <c:v>08/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43870</c:v>
+                  <c:v>09/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43871</c:v>
+                  <c:v>10/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43872</c:v>
+                  <c:v>11/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43873</c:v>
+                  <c:v>12/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43874</c:v>
+                  <c:v>13/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43875</c:v>
+                  <c:v>14/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43876</c:v>
+                  <c:v>15/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43877</c:v>
+                  <c:v>16/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43878</c:v>
+                  <c:v>17/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43879</c:v>
+                  <c:v>18/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43880</c:v>
+                  <c:v>19/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43881</c:v>
+                  <c:v>20/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43882</c:v>
+                  <c:v>21/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>43883</c:v>
+                  <c:v>22/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>43884</c:v>
+                  <c:v>23/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>43885</c:v>
+                  <c:v>24/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43886</c:v>
+                  <c:v>25/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>43887</c:v>
+                  <c:v>26/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>43888</c:v>
+                  <c:v>27/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>43889</c:v>
+                  <c:v>28/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>43890</c:v>
+                  <c:v>29/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>43891</c:v>
+                  <c:v>01/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>43892</c:v>
+                  <c:v>02/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>43893</c:v>
+                  <c:v>03/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>43894</c:v>
+                  <c:v>04/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43895</c:v>
+                  <c:v>05/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43896</c:v>
+                  <c:v>06/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>43897</c:v>
+                  <c:v>07/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>43898</c:v>
+                  <c:v>08/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>43899</c:v>
+                  <c:v>09/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>43900</c:v>
+                  <c:v>10/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>43901</c:v>
+                  <c:v>11/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>43902</c:v>
+                  <c:v>12/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>43903</c:v>
+                  <c:v>13/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>43904</c:v>
+                  <c:v>14/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>43905</c:v>
+                  <c:v>15/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>43906</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>16/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>17/03/2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1315,6 +1320,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>3233</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1352,10 +1360,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>data!$C$3:$C$56</c:f>
+              <c:f>data!$C$3:$C$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1517,6 +1525,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>27980</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>31506</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1562,175 +1573,177 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>data!$A$3:$A$101</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="99"/>
+              <c:strCache>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
-                  <c:v>43853</c:v>
+                  <c:v>23/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43854</c:v>
+                  <c:v>24/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43855</c:v>
+                  <c:v>25/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43856</c:v>
+                  <c:v>26/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43857</c:v>
+                  <c:v>27/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43858</c:v>
+                  <c:v>28/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43859</c:v>
+                  <c:v>29/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43860</c:v>
+                  <c:v>30/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43861</c:v>
+                  <c:v>31/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43862</c:v>
+                  <c:v>01/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43863</c:v>
+                  <c:v>02/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43864</c:v>
+                  <c:v>03/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43865</c:v>
+                  <c:v>04/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43866</c:v>
+                  <c:v>05/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43867</c:v>
+                  <c:v>06/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43868</c:v>
+                  <c:v>07/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43869</c:v>
+                  <c:v>08/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43870</c:v>
+                  <c:v>09/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43871</c:v>
+                  <c:v>10/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43872</c:v>
+                  <c:v>11/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43873</c:v>
+                  <c:v>12/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43874</c:v>
+                  <c:v>13/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43875</c:v>
+                  <c:v>14/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43876</c:v>
+                  <c:v>15/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43877</c:v>
+                  <c:v>16/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43878</c:v>
+                  <c:v>17/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43879</c:v>
+                  <c:v>18/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43880</c:v>
+                  <c:v>19/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43881</c:v>
+                  <c:v>20/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43882</c:v>
+                  <c:v>21/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>43883</c:v>
+                  <c:v>22/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>43884</c:v>
+                  <c:v>23/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>43885</c:v>
+                  <c:v>24/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43886</c:v>
+                  <c:v>25/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>43887</c:v>
+                  <c:v>26/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>43888</c:v>
+                  <c:v>27/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>43889</c:v>
+                  <c:v>28/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>43890</c:v>
+                  <c:v>29/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>43891</c:v>
+                  <c:v>01/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>43892</c:v>
+                  <c:v>02/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>43893</c:v>
+                  <c:v>03/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>43894</c:v>
+                  <c:v>04/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43895</c:v>
+                  <c:v>05/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43896</c:v>
+                  <c:v>06/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>43897</c:v>
+                  <c:v>07/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>43898</c:v>
+                  <c:v>08/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>43899</c:v>
+                  <c:v>09/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>43900</c:v>
+                  <c:v>10/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>43901</c:v>
+                  <c:v>11/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>43902</c:v>
+                  <c:v>12/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>43903</c:v>
+                  <c:v>13/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>43904</c:v>
+                  <c:v>14/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>43905</c:v>
+                  <c:v>15/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>43906</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>16/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>17/03/2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1899,6 +1912,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2102,6 +2118,9 @@
                 <c:pt idx="53">
                   <c:v>2749</c:v>
                 </c:pt>
+                <c:pt idx="54">
+                  <c:v>2941</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2146,175 +2165,177 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>data!$A$3:$A$101</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="99"/>
+              <c:strCache>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
-                  <c:v>43853</c:v>
+                  <c:v>23/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43854</c:v>
+                  <c:v>24/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43855</c:v>
+                  <c:v>25/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43856</c:v>
+                  <c:v>26/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43857</c:v>
+                  <c:v>27/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43858</c:v>
+                  <c:v>28/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43859</c:v>
+                  <c:v>29/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43860</c:v>
+                  <c:v>30/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43861</c:v>
+                  <c:v>31/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43862</c:v>
+                  <c:v>01/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43863</c:v>
+                  <c:v>02/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43864</c:v>
+                  <c:v>03/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43865</c:v>
+                  <c:v>04/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43866</c:v>
+                  <c:v>05/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43867</c:v>
+                  <c:v>06/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43868</c:v>
+                  <c:v>07/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43869</c:v>
+                  <c:v>08/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43870</c:v>
+                  <c:v>09/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43871</c:v>
+                  <c:v>10/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43872</c:v>
+                  <c:v>11/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43873</c:v>
+                  <c:v>12/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43874</c:v>
+                  <c:v>13/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43875</c:v>
+                  <c:v>14/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43876</c:v>
+                  <c:v>15/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43877</c:v>
+                  <c:v>16/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43878</c:v>
+                  <c:v>17/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43879</c:v>
+                  <c:v>18/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43880</c:v>
+                  <c:v>19/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43881</c:v>
+                  <c:v>20/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43882</c:v>
+                  <c:v>21/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>43883</c:v>
+                  <c:v>22/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>43884</c:v>
+                  <c:v>23/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>43885</c:v>
+                  <c:v>24/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43886</c:v>
+                  <c:v>25/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>43887</c:v>
+                  <c:v>26/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>43888</c:v>
+                  <c:v>27/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>43889</c:v>
+                  <c:v>28/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>43890</c:v>
+                  <c:v>29/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>43891</c:v>
+                  <c:v>01/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>43892</c:v>
+                  <c:v>02/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>43893</c:v>
+                  <c:v>03/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>43894</c:v>
+                  <c:v>04/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43895</c:v>
+                  <c:v>05/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43896</c:v>
+                  <c:v>06/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>43897</c:v>
+                  <c:v>07/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>43898</c:v>
+                  <c:v>08/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>43899</c:v>
+                  <c:v>09/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>43900</c:v>
+                  <c:v>10/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>43901</c:v>
+                  <c:v>11/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>43902</c:v>
+                  <c:v>12/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>43903</c:v>
+                  <c:v>13/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>43904</c:v>
+                  <c:v>14/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>43905</c:v>
+                  <c:v>15/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>43906</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>16/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>17/03/2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2483,6 +2504,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>345</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2685,6 +2709,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>2158</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2503</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3468,7 +3495,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E5033616-1311-40B0-933D-42BA4EED2763}" type="CELLRANGE">
+                    <a:fld id="{2E8309A5-D3C6-4358-8D7E-9F6C4FA6B241}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -3540,7 +3567,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{029BF7D3-EEB4-484A-8898-29EC8FD58B06}" type="CELLRANGE">
+                    <a:fld id="{83E3098A-E87A-46E4-A387-0F00AFBE0CEE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr/>
@@ -3773,7 +3800,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{9D6D1648-7B57-4ED7-901D-262ACB2966FF}" type="CELLRANGE">
+                    <a:fld id="{AD85AF86-CE42-4CDF-B8A0-B25ADF759B0F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr/>
@@ -3906,7 +3933,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{F9E0B51B-AA16-4F15-A145-DA9404E077AC}" type="CELLRANGE">
+                    <a:fld id="{7F01CA53-EEBE-47F2-AF8F-E5159073C0B4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr/>
@@ -4064,7 +4091,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{8DF12E0D-177F-4A80-918A-32910A783F60}" type="CELLRANGE">
+                    <a:fld id="{D3856C7A-1FBF-46ED-86D7-DC0759D6CD74}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr/>
@@ -4133,7 +4160,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F8D14DD5-E232-48B8-AE8F-B9C308C1D61B}" type="CELLRANGE">
+                    <a:fld id="{5D75EEE7-20C4-4F86-BB0A-FFD56954C541}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -4192,7 +4219,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{84B3F923-3F85-40E8-BB38-5F99CC9B07EE}" type="CELLRANGE">
+                    <a:fld id="{05C7B2D3-F64F-4E0F-87C6-AF3013636FA9}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -5592,7 +5619,7 @@
         <c:axId val="1189625023"/>
         <c:axId val="1246921471"/>
       </c:lineChart>
-      <c:dateAx>
+      <c:catAx>
         <c:axId val="1189625023"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -5652,7 +5679,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5691,9 +5718,10 @@
         <c:crossAx val="1246921471"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="1246921471"/>
         <c:scaling>
@@ -6022,175 +6050,177 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>data!$A$3:$A$101</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="99"/>
+              <c:strCache>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
-                  <c:v>43853</c:v>
+                  <c:v>23/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43854</c:v>
+                  <c:v>24/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43855</c:v>
+                  <c:v>25/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43856</c:v>
+                  <c:v>26/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43857</c:v>
+                  <c:v>27/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43858</c:v>
+                  <c:v>28/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43859</c:v>
+                  <c:v>29/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43860</c:v>
+                  <c:v>30/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43861</c:v>
+                  <c:v>31/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43862</c:v>
+                  <c:v>01/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43863</c:v>
+                  <c:v>02/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43864</c:v>
+                  <c:v>03/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43865</c:v>
+                  <c:v>04/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43866</c:v>
+                  <c:v>05/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43867</c:v>
+                  <c:v>06/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43868</c:v>
+                  <c:v>07/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43869</c:v>
+                  <c:v>08/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43870</c:v>
+                  <c:v>09/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43871</c:v>
+                  <c:v>10/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43872</c:v>
+                  <c:v>11/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43873</c:v>
+                  <c:v>12/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43874</c:v>
+                  <c:v>13/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43875</c:v>
+                  <c:v>14/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43876</c:v>
+                  <c:v>15/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43877</c:v>
+                  <c:v>16/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43878</c:v>
+                  <c:v>17/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43879</c:v>
+                  <c:v>18/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43880</c:v>
+                  <c:v>19/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43881</c:v>
+                  <c:v>20/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43882</c:v>
+                  <c:v>21/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>43883</c:v>
+                  <c:v>22/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>43884</c:v>
+                  <c:v>23/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>43885</c:v>
+                  <c:v>24/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43886</c:v>
+                  <c:v>25/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>43887</c:v>
+                  <c:v>26/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>43888</c:v>
+                  <c:v>27/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>43889</c:v>
+                  <c:v>28/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>43890</c:v>
+                  <c:v>29/02/2020</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>43891</c:v>
+                  <c:v>01/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>43892</c:v>
+                  <c:v>02/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>43893</c:v>
+                  <c:v>03/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>43894</c:v>
+                  <c:v>04/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43895</c:v>
+                  <c:v>05/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43896</c:v>
+                  <c:v>06/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>43897</c:v>
+                  <c:v>07/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>43898</c:v>
+                  <c:v>08/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>43899</c:v>
+                  <c:v>09/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>43900</c:v>
+                  <c:v>10/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>43901</c:v>
+                  <c:v>11/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>43902</c:v>
+                  <c:v>12/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>43903</c:v>
+                  <c:v>13/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>43904</c:v>
+                  <c:v>14/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>43905</c:v>
+                  <c:v>15/03/2020</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>43906</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>16/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>17/03/2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -6359,6 +6389,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6396,10 +6429,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>data!$I$3:$I$56</c:f>
+              <c:f>data!$I$3:$I$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>639</c:v>
                 </c:pt>
@@ -6561,6 +6594,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>81033</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>81058</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6765,6 +6801,9 @@
                 <c:pt idx="53">
                   <c:v>893</c:v>
                 </c:pt>
+                <c:pt idx="54">
+                  <c:v>888</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6967,6 +7006,9 @@
                 <c:pt idx="53">
                   <c:v>67910</c:v>
                 </c:pt>
+                <c:pt idx="54">
+                  <c:v>68798</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7004,10 +7046,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>data!$J$3:$J$56</c:f>
+              <c:f>data!$J$3:$J$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
                 </c:pt>
@@ -7169,6 +7211,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7206,10 +7251,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>data!$K$3:$K$56</c:f>
+              <c:f>data!$K$3:$K$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
                 </c:pt>
@@ -7371,6 +7416,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>3217</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7429,7 +7477,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{959ADB40-E315-499D-AEAE-96DEE38B321C}" type="CELLRANGE">
+                    <a:fld id="{DC5C484F-68BE-46B2-833E-AF81222B35DF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -7461,7 +7509,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7BD323C0-72FF-424F-AA28-71E0C9B44188}" type="CELLRANGE">
+                    <a:fld id="{10D73DCD-94DC-4A34-97D7-CB2571E9EE51}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -7494,7 +7542,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F88179DE-80ED-4AD8-87ED-F757A7BCABF2}" type="CELLRANGE">
+                    <a:fld id="{7C286325-1B0D-4E9A-956D-D3168081422A}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -7551,7 +7599,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6D0995DA-6E8C-4159-B13F-F58878E09E5D}" type="CELLRANGE">
+                    <a:fld id="{E3DF0C40-8755-4C79-8920-C6A477C36999}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -7608,7 +7656,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6BBAF379-1133-474D-B578-722E8FEE65AC}" type="CELLRANGE">
+                    <a:fld id="{D7F24244-7DD1-46F7-B0E4-5996BCE05857}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -7958,7 +8006,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{39159E52-9E81-4BC5-A056-42A8CA4048B2}" type="CELLRANGE">
+                    <a:fld id="{8269E33F-9896-4F65-BC0B-F921577D962B}" type="CELLRANGE">
                       <a:rPr lang="it-IT"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -9973,7 +10021,7 @@
         <c:axId val="1189625023"/>
         <c:axId val="1246921471"/>
       </c:lineChart>
-      <c:dateAx>
+      <c:catAx>
         <c:axId val="1189625023"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -10033,7 +10081,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -10072,9 +10120,10 @@
         <c:crossAx val="1246921471"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="1246921471"/>
         <c:scaling>
@@ -11431,8 +11480,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A10C3AE9-47D6-4D3B-B79D-3455C3B043FC}" name="Tabella1" displayName="Tabella1" ref="A2:Q56" totalsRowShown="0" headerRowDxfId="13">
-  <autoFilter ref="A2:Q56" xr:uid="{8E3163F1-C996-4F04-8EA7-BB34EF194DE5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A10C3AE9-47D6-4D3B-B79D-3455C3B043FC}" name="Tabella1" displayName="Tabella1" ref="A2:Q57" totalsRowShown="0" headerRowDxfId="13">
+  <autoFilter ref="A2:Q57" xr:uid="{8E3163F1-C996-4F04-8EA7-BB34EF194DE5}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{10117B41-90FB-45E9-AA8D-FE9DBFA555D8}" name="Data" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{AEA433C9-2972-441B-AF12-B0800EC060D2}" name="Nuovi contagi Italia" dataDxfId="11"/>
@@ -11753,10 +11802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="L57" sqref="L57"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14136,6 +14185,47 @@
       </c>
       <c r="M56" s="6">
         <v>67910</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B57" s="5">
+        <v>3526</v>
+      </c>
+      <c r="C57" s="9">
+        <v>31506</v>
+      </c>
+      <c r="D57" s="7">
+        <v>345</v>
+      </c>
+      <c r="E57" s="7">
+        <v>2503</v>
+      </c>
+      <c r="F57" s="6">
+        <v>192</v>
+      </c>
+      <c r="G57" s="6">
+        <v>2941</v>
+      </c>
+      <c r="H57" s="5">
+        <v>25</v>
+      </c>
+      <c r="I57" s="5">
+        <v>81058</v>
+      </c>
+      <c r="J57" s="7">
+        <v>13</v>
+      </c>
+      <c r="K57" s="7">
+        <v>3230</v>
+      </c>
+      <c r="L57" s="6">
+        <v>888</v>
+      </c>
+      <c r="M57" s="6">
+        <v>68798</v>
       </c>
     </row>
   </sheetData>
